--- a/data/Edge_IoT/Dataset.xlsx
+++ b/data/Edge_IoT/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbo/Documents/GitLabanonym/tlparser-extended/data/Edge_IoT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4140FF0D-D527-6B40-8F53-1E66D68DF215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C24EBA-BE2C-CF40-80EE-5A6BD410A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29660" windowHeight="21380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,9 +1441,6 @@
     <t>Predictive Mission-Time Linear Temporal Logic (PMLTL)</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -5905,15 +5902,6 @@
     <t>G (dur_UP &gt; zero_0_times_Time)</t>
   </si>
   <si>
-    <t>Requirement Text Length</t>
-  </si>
-  <si>
-    <t>Requirement Sentences</t>
-  </si>
-  <si>
-    <t>Requirement Words</t>
-  </si>
-  <si>
     <t>ASTH</t>
   </si>
   <si>
@@ -5971,7 +5959,19 @@
     <t>Entropy (LOPs &amp; TOPs)</t>
   </si>
   <si>
-    <t>implies</t>
+    <t>Text Length</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>impl.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -6363,10 +6363,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10002,10 +10002,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11453,10 +11453,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12670,7 +12670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12689,91 +12689,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>1957</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1958</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1959</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>1961</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>1962</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1963</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>1964</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>1965</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>1966</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>1967</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>1979</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>1968</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>1969</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>1970</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>1971</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>1972</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>1973</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>1974</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>1975</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>1977</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -12787,13 +12787,13 @@
         <v>449</v>
       </c>
       <c r="D2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" t="s">
         <v>473</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>474</v>
-      </c>
-      <c r="F2" t="s">
-        <v>475</v>
       </c>
       <c r="G2">
         <v>287</v>
@@ -12876,13 +12876,13 @@
         <v>449</v>
       </c>
       <c r="D3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" t="s">
         <v>476</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>477</v>
-      </c>
-      <c r="F3" t="s">
-        <v>478</v>
       </c>
       <c r="G3">
         <v>151</v>
@@ -12965,13 +12965,13 @@
         <v>449</v>
       </c>
       <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
         <v>479</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>481</v>
       </c>
       <c r="G4">
         <v>128</v>
@@ -13054,13 +13054,13 @@
         <v>449</v>
       </c>
       <c r="D5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E5" t="s">
         <v>482</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>483</v>
-      </c>
-      <c r="F5" t="s">
-        <v>484</v>
       </c>
       <c r="G5">
         <v>127</v>
@@ -13143,13 +13143,13 @@
         <v>449</v>
       </c>
       <c r="D6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" t="s">
         <v>485</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>486</v>
-      </c>
-      <c r="F6" t="s">
-        <v>487</v>
       </c>
       <c r="G6">
         <v>101</v>
@@ -13232,13 +13232,13 @@
         <v>449</v>
       </c>
       <c r="D7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" t="s">
         <v>488</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>489</v>
-      </c>
-      <c r="F7" t="s">
-        <v>490</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -13318,13 +13318,13 @@
         <v>449</v>
       </c>
       <c r="D8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" t="s">
         <v>491</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>492</v>
-      </c>
-      <c r="F8" t="s">
-        <v>493</v>
       </c>
       <c r="G8">
         <v>106</v>
@@ -13407,13 +13407,13 @@
         <v>449</v>
       </c>
       <c r="D9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E9" t="s">
         <v>494</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>495</v>
-      </c>
-      <c r="F9" t="s">
-        <v>496</v>
       </c>
       <c r="G9">
         <v>95</v>
@@ -13496,13 +13496,13 @@
         <v>449</v>
       </c>
       <c r="D10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E10" t="s">
         <v>497</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>498</v>
-      </c>
-      <c r="F10" t="s">
-        <v>499</v>
       </c>
       <c r="G10">
         <v>39</v>
@@ -13585,13 +13585,13 @@
         <v>449</v>
       </c>
       <c r="D11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E11" t="s">
         <v>500</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>501</v>
-      </c>
-      <c r="F11" t="s">
-        <v>502</v>
       </c>
       <c r="G11">
         <v>39</v>
@@ -13674,13 +13674,13 @@
         <v>449</v>
       </c>
       <c r="D12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" t="s">
         <v>503</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>504</v>
-      </c>
-      <c r="F12" t="s">
-        <v>505</v>
       </c>
       <c r="G12">
         <v>108</v>
@@ -13763,13 +13763,13 @@
         <v>449</v>
       </c>
       <c r="D13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" t="s">
         <v>506</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>507</v>
-      </c>
-      <c r="F13" t="s">
-        <v>508</v>
       </c>
       <c r="G13">
         <v>82</v>
@@ -13852,13 +13852,13 @@
         <v>449</v>
       </c>
       <c r="D14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" t="s">
         <v>509</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>510</v>
-      </c>
-      <c r="F14" t="s">
-        <v>511</v>
       </c>
       <c r="G14">
         <v>61</v>
@@ -13941,13 +13941,13 @@
         <v>449</v>
       </c>
       <c r="D15" t="s">
+        <v>511</v>
+      </c>
+      <c r="E15" t="s">
         <v>512</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>513</v>
-      </c>
-      <c r="F15" t="s">
-        <v>514</v>
       </c>
       <c r="G15">
         <v>92</v>
@@ -14030,13 +14030,13 @@
         <v>449</v>
       </c>
       <c r="D16" t="s">
+        <v>514</v>
+      </c>
+      <c r="E16" t="s">
         <v>515</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>516</v>
-      </c>
-      <c r="F16" t="s">
-        <v>517</v>
       </c>
       <c r="G16">
         <v>57</v>
@@ -14119,13 +14119,13 @@
         <v>449</v>
       </c>
       <c r="D17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F17" t="s">
         <v>518</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1896</v>
-      </c>
-      <c r="F17" t="s">
-        <v>519</v>
       </c>
       <c r="G17">
         <v>274</v>
@@ -14208,13 +14208,13 @@
         <v>449</v>
       </c>
       <c r="D18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F18" t="s">
         <v>520</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1897</v>
-      </c>
-      <c r="F18" t="s">
-        <v>521</v>
       </c>
       <c r="G18">
         <v>83</v>
@@ -14297,13 +14297,13 @@
         <v>449</v>
       </c>
       <c r="D19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F19" t="s">
         <v>522</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F19" t="s">
-        <v>523</v>
       </c>
       <c r="G19">
         <v>85</v>
@@ -14386,13 +14386,13 @@
         <v>449</v>
       </c>
       <c r="D20" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F20" t="s">
         <v>524</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F20" t="s">
-        <v>525</v>
       </c>
       <c r="G20">
         <v>122</v>
@@ -14475,13 +14475,13 @@
         <v>449</v>
       </c>
       <c r="D21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F21" t="s">
         <v>526</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1900</v>
-      </c>
-      <c r="F21" t="s">
-        <v>527</v>
       </c>
       <c r="G21">
         <v>85</v>
@@ -14564,13 +14564,13 @@
         <v>449</v>
       </c>
       <c r="D22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F22" t="s">
         <v>528</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F22" t="s">
-        <v>529</v>
       </c>
       <c r="G22">
         <v>86</v>
@@ -14653,13 +14653,13 @@
         <v>449</v>
       </c>
       <c r="D23" t="s">
+        <v>529</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F23" t="s">
         <v>530</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F23" t="s">
-        <v>531</v>
       </c>
       <c r="G23">
         <v>93</v>
@@ -14742,13 +14742,13 @@
         <v>449</v>
       </c>
       <c r="D24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F24" t="s">
         <v>532</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F24" t="s">
-        <v>533</v>
       </c>
       <c r="G24">
         <v>110</v>
@@ -14831,13 +14831,13 @@
         <v>449</v>
       </c>
       <c r="D25" t="s">
+        <v>533</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F25" t="s">
         <v>534</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F25" t="s">
-        <v>535</v>
       </c>
       <c r="G25">
         <v>97</v>
@@ -14920,13 +14920,13 @@
         <v>449</v>
       </c>
       <c r="D26" t="s">
+        <v>535</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F26" t="s">
         <v>536</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1905</v>
-      </c>
-      <c r="F26" t="s">
-        <v>537</v>
       </c>
       <c r="G26">
         <v>83</v>
@@ -15009,13 +15009,13 @@
         <v>449</v>
       </c>
       <c r="D27" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F27" t="s">
         <v>538</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1906</v>
-      </c>
-      <c r="F27" t="s">
-        <v>539</v>
       </c>
       <c r="G27">
         <v>89</v>
@@ -15098,13 +15098,13 @@
         <v>449</v>
       </c>
       <c r="D28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F28" t="s">
         <v>540</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1907</v>
-      </c>
-      <c r="F28" t="s">
-        <v>541</v>
       </c>
       <c r="G28">
         <v>102</v>
@@ -15187,13 +15187,13 @@
         <v>449</v>
       </c>
       <c r="D29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F29" t="s">
         <v>542</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F29" t="s">
-        <v>543</v>
       </c>
       <c r="G29">
         <v>101</v>
@@ -15276,13 +15276,13 @@
         <v>449</v>
       </c>
       <c r="D30" t="s">
+        <v>543</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F30" t="s">
         <v>544</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F30" t="s">
-        <v>545</v>
       </c>
       <c r="G30">
         <v>79</v>
@@ -15365,13 +15365,13 @@
         <v>449</v>
       </c>
       <c r="D31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" t="s">
         <v>546</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>547</v>
-      </c>
-      <c r="F31" t="s">
-        <v>548</v>
       </c>
       <c r="G31">
         <v>60</v>
@@ -15454,13 +15454,13 @@
         <v>449</v>
       </c>
       <c r="D32" t="s">
+        <v>548</v>
+      </c>
+      <c r="E32" t="s">
         <v>549</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>550</v>
-      </c>
-      <c r="F32" t="s">
-        <v>551</v>
       </c>
       <c r="G32">
         <v>32</v>
@@ -15543,13 +15543,13 @@
         <v>449</v>
       </c>
       <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" t="s">
         <v>552</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>553</v>
-      </c>
-      <c r="F33" t="s">
-        <v>554</v>
       </c>
       <c r="G33">
         <v>51</v>
@@ -15629,13 +15629,13 @@
         <v>449</v>
       </c>
       <c r="D34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E34" t="s">
         <v>555</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>556</v>
-      </c>
-      <c r="F34" t="s">
-        <v>557</v>
       </c>
       <c r="G34">
         <v>66</v>
@@ -15718,13 +15718,13 @@
         <v>449</v>
       </c>
       <c r="D35" t="s">
+        <v>557</v>
+      </c>
+      <c r="E35" t="s">
         <v>558</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>559</v>
-      </c>
-      <c r="F35" t="s">
-        <v>560</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -15807,13 +15807,13 @@
         <v>449</v>
       </c>
       <c r="D36" t="s">
+        <v>560</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F36" t="s">
         <v>561</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F36" t="s">
-        <v>562</v>
       </c>
       <c r="G36">
         <v>131</v>
@@ -15896,13 +15896,13 @@
         <v>449</v>
       </c>
       <c r="D37" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F37" t="s">
         <v>563</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F37" t="s">
-        <v>564</v>
       </c>
       <c r="G37">
         <v>166</v>
@@ -15985,13 +15985,13 @@
         <v>449</v>
       </c>
       <c r="D38" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" t="s">
         <v>565</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>566</v>
-      </c>
-      <c r="F38" t="s">
-        <v>567</v>
       </c>
       <c r="G38">
         <v>528</v>
@@ -16074,13 +16074,13 @@
         <v>449</v>
       </c>
       <c r="D39" t="s">
+        <v>567</v>
+      </c>
+      <c r="E39" t="s">
         <v>568</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="G39">
         <v>469</v>
@@ -16163,13 +16163,13 @@
         <v>449</v>
       </c>
       <c r="D40" t="s">
+        <v>570</v>
+      </c>
+      <c r="E40" t="s">
         <v>571</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>572</v>
-      </c>
-      <c r="F40" t="s">
-        <v>573</v>
       </c>
       <c r="G40">
         <v>84</v>
@@ -16252,13 +16252,13 @@
         <v>449</v>
       </c>
       <c r="D41" t="s">
+        <v>573</v>
+      </c>
+      <c r="E41" t="s">
         <v>574</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>575</v>
-      </c>
-      <c r="F41" t="s">
-        <v>576</v>
       </c>
       <c r="G41">
         <v>58</v>
@@ -16341,13 +16341,13 @@
         <v>449</v>
       </c>
       <c r="D42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E42" t="s">
         <v>577</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>578</v>
-      </c>
-      <c r="F42" t="s">
-        <v>579</v>
       </c>
       <c r="G42">
         <v>63</v>
@@ -16430,13 +16430,13 @@
         <v>449</v>
       </c>
       <c r="D43" t="s">
+        <v>579</v>
+      </c>
+      <c r="E43" t="s">
         <v>580</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>581</v>
-      </c>
-      <c r="F43" t="s">
-        <v>582</v>
       </c>
       <c r="G43">
         <v>105</v>
@@ -16519,13 +16519,13 @@
         <v>449</v>
       </c>
       <c r="D44" t="s">
+        <v>582</v>
+      </c>
+      <c r="E44" t="s">
         <v>583</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>584</v>
-      </c>
-      <c r="F44" t="s">
-        <v>585</v>
       </c>
       <c r="G44">
         <v>62</v>
@@ -16608,13 +16608,13 @@
         <v>449</v>
       </c>
       <c r="D45" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" t="s">
         <v>586</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>587</v>
-      </c>
-      <c r="F45" t="s">
-        <v>588</v>
       </c>
       <c r="G45">
         <v>96</v>
@@ -16697,13 +16697,13 @@
         <v>449</v>
       </c>
       <c r="D46" t="s">
+        <v>588</v>
+      </c>
+      <c r="E46" t="s">
         <v>589</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>590</v>
-      </c>
-      <c r="F46" t="s">
-        <v>591</v>
       </c>
       <c r="G46">
         <v>56</v>
@@ -16786,13 +16786,13 @@
         <v>449</v>
       </c>
       <c r="D47" t="s">
+        <v>591</v>
+      </c>
+      <c r="E47" t="s">
         <v>592</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>593</v>
-      </c>
-      <c r="F47" t="s">
-        <v>594</v>
       </c>
       <c r="G47">
         <v>63</v>
@@ -16875,13 +16875,13 @@
         <v>449</v>
       </c>
       <c r="D48" t="s">
+        <v>594</v>
+      </c>
+      <c r="E48" t="s">
         <v>595</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>596</v>
-      </c>
-      <c r="F48" t="s">
-        <v>597</v>
       </c>
       <c r="G48">
         <v>68</v>
@@ -16964,13 +16964,13 @@
         <v>449</v>
       </c>
       <c r="D49" t="s">
+        <v>597</v>
+      </c>
+      <c r="E49" t="s">
         <v>598</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>599</v>
-      </c>
-      <c r="F49" t="s">
-        <v>600</v>
       </c>
       <c r="G49">
         <v>54</v>
@@ -17053,13 +17053,13 @@
         <v>449</v>
       </c>
       <c r="D50" t="s">
+        <v>600</v>
+      </c>
+      <c r="E50" t="s">
         <v>601</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>602</v>
-      </c>
-      <c r="F50" t="s">
-        <v>603</v>
       </c>
       <c r="G50">
         <v>63</v>
@@ -17142,13 +17142,13 @@
         <v>449</v>
       </c>
       <c r="D51" t="s">
+        <v>603</v>
+      </c>
+      <c r="E51" t="s">
         <v>604</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>605</v>
-      </c>
-      <c r="F51" t="s">
-        <v>606</v>
       </c>
       <c r="G51">
         <v>112</v>
@@ -17231,13 +17231,13 @@
         <v>449</v>
       </c>
       <c r="D52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E52" t="s">
         <v>607</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>608</v>
-      </c>
-      <c r="F52" t="s">
-        <v>609</v>
       </c>
       <c r="G52">
         <v>112</v>
@@ -17320,13 +17320,13 @@
         <v>449</v>
       </c>
       <c r="D53" t="s">
+        <v>609</v>
+      </c>
+      <c r="E53" t="s">
         <v>610</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>611</v>
-      </c>
-      <c r="F53" t="s">
-        <v>612</v>
       </c>
       <c r="G53">
         <v>69</v>
@@ -17409,13 +17409,13 @@
         <v>449</v>
       </c>
       <c r="D54" t="s">
+        <v>612</v>
+      </c>
+      <c r="E54" t="s">
         <v>613</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>614</v>
-      </c>
-      <c r="F54" t="s">
-        <v>615</v>
       </c>
       <c r="G54">
         <v>121</v>
@@ -17498,13 +17498,13 @@
         <v>449</v>
       </c>
       <c r="D55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E55" t="s">
         <v>616</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>617</v>
-      </c>
-      <c r="F55" t="s">
-        <v>618</v>
       </c>
       <c r="G55">
         <v>142</v>
@@ -17587,13 +17587,13 @@
         <v>449</v>
       </c>
       <c r="D56" t="s">
+        <v>618</v>
+      </c>
+      <c r="E56" t="s">
         <v>619</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>620</v>
-      </c>
-      <c r="F56" t="s">
-        <v>621</v>
       </c>
       <c r="G56">
         <v>230</v>
@@ -17676,13 +17676,13 @@
         <v>449</v>
       </c>
       <c r="D57" t="s">
+        <v>621</v>
+      </c>
+      <c r="E57" t="s">
         <v>622</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>623</v>
-      </c>
-      <c r="F57" t="s">
-        <v>624</v>
       </c>
       <c r="G57">
         <v>93</v>
@@ -17765,13 +17765,13 @@
         <v>449</v>
       </c>
       <c r="D58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" t="s">
         <v>625</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>626</v>
-      </c>
-      <c r="F58" t="s">
-        <v>627</v>
       </c>
       <c r="G58">
         <v>136</v>
@@ -17854,13 +17854,13 @@
         <v>449</v>
       </c>
       <c r="D59" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59" t="s">
         <v>628</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>629</v>
-      </c>
-      <c r="F59" t="s">
-        <v>630</v>
       </c>
       <c r="G59">
         <v>148</v>
@@ -17943,13 +17943,13 @@
         <v>449</v>
       </c>
       <c r="D60" t="s">
+        <v>630</v>
+      </c>
+      <c r="E60" t="s">
         <v>631</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>632</v>
-      </c>
-      <c r="F60" t="s">
-        <v>633</v>
       </c>
       <c r="G60">
         <v>116</v>
@@ -18032,13 +18032,13 @@
         <v>449</v>
       </c>
       <c r="D61" t="s">
+        <v>633</v>
+      </c>
+      <c r="E61" t="s">
         <v>634</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>635</v>
-      </c>
-      <c r="F61" t="s">
-        <v>636</v>
       </c>
       <c r="G61">
         <v>131</v>
@@ -18121,13 +18121,13 @@
         <v>449</v>
       </c>
       <c r="D62" t="s">
+        <v>636</v>
+      </c>
+      <c r="E62" t="s">
         <v>637</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>638</v>
-      </c>
-      <c r="F62" t="s">
-        <v>639</v>
       </c>
       <c r="G62">
         <v>55</v>
@@ -18210,13 +18210,13 @@
         <v>449</v>
       </c>
       <c r="D63" t="s">
+        <v>639</v>
+      </c>
+      <c r="E63" t="s">
         <v>640</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>641</v>
-      </c>
-      <c r="F63" t="s">
-        <v>642</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -18299,13 +18299,13 @@
         <v>449</v>
       </c>
       <c r="D64" t="s">
+        <v>642</v>
+      </c>
+      <c r="E64" t="s">
         <v>643</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>644</v>
-      </c>
-      <c r="F64" t="s">
-        <v>645</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -18388,13 +18388,13 @@
         <v>449</v>
       </c>
       <c r="D65" t="s">
+        <v>645</v>
+      </c>
+      <c r="E65" t="s">
         <v>646</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>647</v>
-      </c>
-      <c r="F65" t="s">
-        <v>648</v>
       </c>
       <c r="G65">
         <v>45</v>
@@ -18477,13 +18477,13 @@
         <v>449</v>
       </c>
       <c r="D66" t="s">
+        <v>648</v>
+      </c>
+      <c r="E66" t="s">
         <v>649</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>650</v>
-      </c>
-      <c r="F66" t="s">
-        <v>651</v>
       </c>
       <c r="G66">
         <v>350</v>
@@ -18566,13 +18566,13 @@
         <v>449</v>
       </c>
       <c r="D67" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E67" t="s">
+        <v>651</v>
+      </c>
+      <c r="F67" t="s">
         <v>652</v>
-      </c>
-      <c r="F67" t="s">
-        <v>653</v>
       </c>
       <c r="G67">
         <v>350</v>
@@ -18655,13 +18655,13 @@
         <v>449</v>
       </c>
       <c r="D68" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E68" t="s">
+        <v>653</v>
+      </c>
+      <c r="F68" t="s">
         <v>654</v>
-      </c>
-      <c r="F68" t="s">
-        <v>655</v>
       </c>
       <c r="G68">
         <v>350</v>
@@ -18744,13 +18744,13 @@
         <v>449</v>
       </c>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E69" t="s">
+        <v>655</v>
+      </c>
+      <c r="F69" t="s">
         <v>656</v>
-      </c>
-      <c r="F69" t="s">
-        <v>657</v>
       </c>
       <c r="G69">
         <v>350</v>
@@ -18833,13 +18833,13 @@
         <v>449</v>
       </c>
       <c r="D70" t="s">
+        <v>657</v>
+      </c>
+      <c r="E70" t="s">
         <v>658</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>659</v>
-      </c>
-      <c r="F70" t="s">
-        <v>660</v>
       </c>
       <c r="G70">
         <v>151</v>
@@ -18922,13 +18922,13 @@
         <v>449</v>
       </c>
       <c r="D71" t="s">
+        <v>660</v>
+      </c>
+      <c r="E71" t="s">
         <v>661</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>662</v>
-      </c>
-      <c r="F71" t="s">
-        <v>663</v>
       </c>
       <c r="G71">
         <v>137</v>
@@ -19011,13 +19011,13 @@
         <v>449</v>
       </c>
       <c r="D72" t="s">
+        <v>663</v>
+      </c>
+      <c r="E72" t="s">
         <v>664</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>665</v>
-      </c>
-      <c r="F72" t="s">
-        <v>666</v>
       </c>
       <c r="G72">
         <v>155</v>
@@ -19100,13 +19100,13 @@
         <v>449</v>
       </c>
       <c r="D73" t="s">
+        <v>666</v>
+      </c>
+      <c r="E73" t="s">
         <v>667</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>668</v>
-      </c>
-      <c r="F73" t="s">
-        <v>669</v>
       </c>
       <c r="G73">
         <v>233</v>
@@ -19189,13 +19189,13 @@
         <v>449</v>
       </c>
       <c r="D74" t="s">
+        <v>669</v>
+      </c>
+      <c r="E74" t="s">
         <v>670</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>671</v>
-      </c>
-      <c r="F74" t="s">
-        <v>672</v>
       </c>
       <c r="G74">
         <v>18</v>
@@ -19278,13 +19278,13 @@
         <v>449</v>
       </c>
       <c r="D75" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E75" t="s">
+        <v>672</v>
+      </c>
+      <c r="F75" t="s">
         <v>673</v>
-      </c>
-      <c r="F75" t="s">
-        <v>674</v>
       </c>
       <c r="G75">
         <v>18</v>
@@ -19367,13 +19367,13 @@
         <v>449</v>
       </c>
       <c r="D76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E76" t="s">
+        <v>674</v>
+      </c>
+      <c r="F76" t="s">
         <v>675</v>
-      </c>
-      <c r="F76" t="s">
-        <v>676</v>
       </c>
       <c r="G76">
         <v>18</v>
@@ -19456,13 +19456,13 @@
         <v>449</v>
       </c>
       <c r="D77" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E77" t="s">
+        <v>676</v>
+      </c>
+      <c r="F77" t="s">
         <v>677</v>
-      </c>
-      <c r="F77" t="s">
-        <v>678</v>
       </c>
       <c r="G77">
         <v>18</v>
@@ -19545,13 +19545,13 @@
         <v>449</v>
       </c>
       <c r="D78" t="s">
+        <v>678</v>
+      </c>
+      <c r="E78" t="s">
         <v>679</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>680</v>
-      </c>
-      <c r="F78" t="s">
-        <v>681</v>
       </c>
       <c r="G78">
         <v>17</v>
@@ -19634,13 +19634,13 @@
         <v>449</v>
       </c>
       <c r="D79" t="s">
+        <v>681</v>
+      </c>
+      <c r="E79" t="s">
         <v>682</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>683</v>
-      </c>
-      <c r="F79" t="s">
-        <v>684</v>
       </c>
       <c r="G79">
         <v>99</v>
@@ -19723,13 +19723,13 @@
         <v>449</v>
       </c>
       <c r="D80" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E80" t="s">
+        <v>684</v>
+      </c>
+      <c r="F80" t="s">
         <v>685</v>
-      </c>
-      <c r="F80" t="s">
-        <v>686</v>
       </c>
       <c r="G80">
         <v>99</v>
@@ -19812,13 +19812,13 @@
         <v>449</v>
       </c>
       <c r="D81" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E81" t="s">
+        <v>686</v>
+      </c>
+      <c r="F81" t="s">
         <v>687</v>
-      </c>
-      <c r="F81" t="s">
-        <v>688</v>
       </c>
       <c r="G81">
         <v>99</v>
@@ -19901,13 +19901,13 @@
         <v>449</v>
       </c>
       <c r="D82" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E82" t="s">
+        <v>688</v>
+      </c>
+      <c r="F82" t="s">
         <v>689</v>
-      </c>
-      <c r="F82" t="s">
-        <v>690</v>
       </c>
       <c r="G82">
         <v>99</v>
@@ -19990,13 +19990,13 @@
         <v>449</v>
       </c>
       <c r="D83" t="s">
+        <v>690</v>
+      </c>
+      <c r="E83" t="s">
         <v>691</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>692</v>
-      </c>
-      <c r="F83" t="s">
-        <v>693</v>
       </c>
       <c r="G83">
         <v>149</v>
@@ -20079,13 +20079,13 @@
         <v>449</v>
       </c>
       <c r="D84" t="s">
+        <v>693</v>
+      </c>
+      <c r="E84" t="s">
         <v>694</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>695</v>
-      </c>
-      <c r="F84" t="s">
-        <v>696</v>
       </c>
       <c r="G84">
         <v>141</v>
@@ -20168,13 +20168,13 @@
         <v>449</v>
       </c>
       <c r="D85" t="s">
+        <v>696</v>
+      </c>
+      <c r="E85" t="s">
         <v>697</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>698</v>
-      </c>
-      <c r="F85" t="s">
-        <v>699</v>
       </c>
       <c r="G85">
         <v>63</v>
@@ -20257,13 +20257,13 @@
         <v>449</v>
       </c>
       <c r="D86" t="s">
+        <v>699</v>
+      </c>
+      <c r="E86" t="s">
         <v>700</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>701</v>
-      </c>
-      <c r="F86" t="s">
-        <v>702</v>
       </c>
       <c r="G86">
         <v>103</v>
@@ -20346,13 +20346,13 @@
         <v>449</v>
       </c>
       <c r="D87" t="s">
+        <v>702</v>
+      </c>
+      <c r="E87" t="s">
         <v>703</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>704</v>
-      </c>
-      <c r="F87" t="s">
-        <v>705</v>
       </c>
       <c r="G87">
         <v>67</v>
@@ -20435,13 +20435,13 @@
         <v>451</v>
       </c>
       <c r="D88" t="s">
+        <v>705</v>
+      </c>
+      <c r="E88" t="s">
         <v>706</v>
       </c>
-      <c r="E88" t="s">
-        <v>707</v>
-      </c>
       <c r="F88" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G88">
         <v>91</v>
@@ -20524,13 +20524,13 @@
         <v>451</v>
       </c>
       <c r="D89" t="s">
+        <v>707</v>
+      </c>
+      <c r="E89" t="s">
         <v>708</v>
       </c>
-      <c r="E89" t="s">
-        <v>709</v>
-      </c>
       <c r="F89" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="G89">
         <v>362</v>
@@ -20613,13 +20613,13 @@
         <v>451</v>
       </c>
       <c r="D90" t="s">
+        <v>709</v>
+      </c>
+      <c r="E90" t="s">
         <v>710</v>
       </c>
-      <c r="E90" t="s">
-        <v>711</v>
-      </c>
       <c r="F90" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G90">
         <v>316</v>
@@ -20702,13 +20702,13 @@
         <v>451</v>
       </c>
       <c r="D91" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" t="s">
         <v>712</v>
       </c>
-      <c r="E91" t="s">
-        <v>713</v>
-      </c>
       <c r="F91" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G91">
         <v>122</v>
@@ -20791,13 +20791,13 @@
         <v>449</v>
       </c>
       <c r="D92" t="s">
+        <v>713</v>
+      </c>
+      <c r="E92" t="s">
         <v>714</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>715</v>
-      </c>
-      <c r="F92" t="s">
-        <v>716</v>
       </c>
       <c r="G92">
         <v>49</v>
@@ -20880,13 +20880,13 @@
         <v>449</v>
       </c>
       <c r="D93" t="s">
+        <v>716</v>
+      </c>
+      <c r="E93" t="s">
         <v>717</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>718</v>
-      </c>
-      <c r="F93" t="s">
-        <v>719</v>
       </c>
       <c r="G93">
         <v>47</v>
@@ -20969,13 +20969,13 @@
         <v>449</v>
       </c>
       <c r="D94" t="s">
+        <v>719</v>
+      </c>
+      <c r="E94" t="s">
         <v>720</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>721</v>
-      </c>
-      <c r="F94" t="s">
-        <v>722</v>
       </c>
       <c r="G94">
         <v>61</v>
@@ -21058,13 +21058,13 @@
         <v>449</v>
       </c>
       <c r="D95" t="s">
+        <v>722</v>
+      </c>
+      <c r="E95" t="s">
         <v>723</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>724</v>
-      </c>
-      <c r="F95" t="s">
-        <v>725</v>
       </c>
       <c r="G95">
         <v>55</v>
@@ -21147,13 +21147,13 @@
         <v>449</v>
       </c>
       <c r="D96" t="s">
+        <v>725</v>
+      </c>
+      <c r="E96" t="s">
         <v>726</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>727</v>
-      </c>
-      <c r="F96" t="s">
-        <v>728</v>
       </c>
       <c r="G96">
         <v>54</v>
@@ -21236,13 +21236,13 @@
         <v>449</v>
       </c>
       <c r="D97" t="s">
+        <v>728</v>
+      </c>
+      <c r="E97" t="s">
         <v>729</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>730</v>
-      </c>
-      <c r="F97" t="s">
-        <v>731</v>
       </c>
       <c r="G97">
         <v>154</v>
@@ -21325,13 +21325,13 @@
         <v>449</v>
       </c>
       <c r="D98" t="s">
+        <v>731</v>
+      </c>
+      <c r="E98" t="s">
         <v>732</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>733</v>
-      </c>
-      <c r="F98" t="s">
-        <v>734</v>
       </c>
       <c r="G98">
         <v>70</v>
@@ -21414,13 +21414,13 @@
         <v>449</v>
       </c>
       <c r="D99" t="s">
+        <v>734</v>
+      </c>
+      <c r="E99" t="s">
         <v>735</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>736</v>
-      </c>
-      <c r="F99" t="s">
-        <v>737</v>
       </c>
       <c r="G99">
         <v>104</v>
@@ -21503,13 +21503,13 @@
         <v>449</v>
       </c>
       <c r="D100" t="s">
+        <v>737</v>
+      </c>
+      <c r="E100" t="s">
         <v>738</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>739</v>
-      </c>
-      <c r="F100" t="s">
-        <v>740</v>
       </c>
       <c r="G100">
         <v>114</v>
@@ -21592,13 +21592,13 @@
         <v>449</v>
       </c>
       <c r="D101" t="s">
+        <v>740</v>
+      </c>
+      <c r="E101" t="s">
         <v>741</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>742</v>
-      </c>
-      <c r="F101" t="s">
-        <v>743</v>
       </c>
       <c r="G101">
         <v>140</v>
@@ -21681,13 +21681,13 @@
         <v>449</v>
       </c>
       <c r="D102" t="s">
+        <v>743</v>
+      </c>
+      <c r="E102" t="s">
         <v>744</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>745</v>
-      </c>
-      <c r="F102" t="s">
-        <v>746</v>
       </c>
       <c r="G102">
         <v>112</v>
@@ -21770,13 +21770,13 @@
         <v>449</v>
       </c>
       <c r="D103" t="s">
+        <v>746</v>
+      </c>
+      <c r="E103" t="s">
         <v>747</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>748</v>
-      </c>
-      <c r="F103" t="s">
-        <v>749</v>
       </c>
       <c r="G103">
         <v>111</v>
@@ -21859,13 +21859,13 @@
         <v>449</v>
       </c>
       <c r="D104" t="s">
+        <v>749</v>
+      </c>
+      <c r="E104" t="s">
         <v>750</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>751</v>
-      </c>
-      <c r="F104" t="s">
-        <v>752</v>
       </c>
       <c r="G104">
         <v>115</v>
@@ -21948,13 +21948,13 @@
         <v>449</v>
       </c>
       <c r="D105" t="s">
+        <v>752</v>
+      </c>
+      <c r="E105" t="s">
         <v>753</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>754</v>
-      </c>
-      <c r="F105" t="s">
-        <v>755</v>
       </c>
       <c r="G105">
         <v>138</v>
@@ -22037,13 +22037,13 @@
         <v>449</v>
       </c>
       <c r="D106" t="s">
+        <v>755</v>
+      </c>
+      <c r="E106" t="s">
         <v>756</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>757</v>
-      </c>
-      <c r="F106" t="s">
-        <v>758</v>
       </c>
       <c r="G106">
         <v>163</v>
@@ -22126,13 +22126,13 @@
         <v>449</v>
       </c>
       <c r="D107" t="s">
+        <v>758</v>
+      </c>
+      <c r="E107" t="s">
         <v>759</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>760</v>
-      </c>
-      <c r="F107" t="s">
-        <v>761</v>
       </c>
       <c r="G107">
         <v>113</v>
@@ -22215,13 +22215,13 @@
         <v>449</v>
       </c>
       <c r="D108" t="s">
+        <v>761</v>
+      </c>
+      <c r="E108" t="s">
         <v>762</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>763</v>
-      </c>
-      <c r="F108" t="s">
-        <v>764</v>
       </c>
       <c r="G108">
         <v>125</v>
@@ -22304,13 +22304,13 @@
         <v>449</v>
       </c>
       <c r="D109" t="s">
+        <v>764</v>
+      </c>
+      <c r="E109" t="s">
         <v>765</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>766</v>
-      </c>
-      <c r="F109" t="s">
-        <v>767</v>
       </c>
       <c r="G109">
         <v>178</v>
@@ -22393,13 +22393,13 @@
         <v>449</v>
       </c>
       <c r="D110" t="s">
+        <v>767</v>
+      </c>
+      <c r="E110" t="s">
         <v>768</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>769</v>
-      </c>
-      <c r="F110" t="s">
-        <v>770</v>
       </c>
       <c r="G110">
         <v>73</v>
@@ -22482,13 +22482,13 @@
         <v>449</v>
       </c>
       <c r="D111" t="s">
+        <v>770</v>
+      </c>
+      <c r="E111" t="s">
         <v>771</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>772</v>
-      </c>
-      <c r="F111" t="s">
-        <v>773</v>
       </c>
       <c r="G111">
         <v>72</v>
@@ -22571,13 +22571,13 @@
         <v>449</v>
       </c>
       <c r="D112" t="s">
+        <v>773</v>
+      </c>
+      <c r="E112" t="s">
         <v>774</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>775</v>
-      </c>
-      <c r="F112" t="s">
-        <v>776</v>
       </c>
       <c r="G112">
         <v>72</v>
@@ -22660,13 +22660,13 @@
         <v>449</v>
       </c>
       <c r="D113" t="s">
+        <v>776</v>
+      </c>
+      <c r="E113" t="s">
         <v>777</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>778</v>
-      </c>
-      <c r="F113" t="s">
-        <v>779</v>
       </c>
       <c r="G113">
         <v>72</v>
@@ -22749,13 +22749,13 @@
         <v>449</v>
       </c>
       <c r="D114" t="s">
+        <v>779</v>
+      </c>
+      <c r="E114" t="s">
         <v>780</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>781</v>
-      </c>
-      <c r="F114" t="s">
-        <v>782</v>
       </c>
       <c r="G114">
         <v>194</v>
@@ -22838,13 +22838,13 @@
         <v>449</v>
       </c>
       <c r="D115" t="s">
+        <v>782</v>
+      </c>
+      <c r="E115" t="s">
         <v>783</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>784</v>
-      </c>
-      <c r="F115" t="s">
-        <v>785</v>
       </c>
       <c r="G115">
         <v>82</v>
@@ -22927,13 +22927,13 @@
         <v>449</v>
       </c>
       <c r="D116" t="s">
+        <v>785</v>
+      </c>
+      <c r="E116" t="s">
         <v>786</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>787</v>
-      </c>
-      <c r="F116" t="s">
-        <v>788</v>
       </c>
       <c r="G116">
         <v>82</v>
@@ -23016,13 +23016,13 @@
         <v>449</v>
       </c>
       <c r="D117" t="s">
+        <v>788</v>
+      </c>
+      <c r="E117" t="s">
         <v>789</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>790</v>
-      </c>
-      <c r="F117" t="s">
-        <v>791</v>
       </c>
       <c r="G117">
         <v>220</v>
@@ -23105,13 +23105,13 @@
         <v>449</v>
       </c>
       <c r="D118" t="s">
+        <v>791</v>
+      </c>
+      <c r="E118" t="s">
         <v>792</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>793</v>
-      </c>
-      <c r="F118" t="s">
-        <v>794</v>
       </c>
       <c r="G118">
         <v>27</v>
@@ -23194,13 +23194,13 @@
         <v>449</v>
       </c>
       <c r="D119" t="s">
+        <v>794</v>
+      </c>
+      <c r="E119" t="s">
         <v>795</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>796</v>
-      </c>
-      <c r="F119" t="s">
-        <v>797</v>
       </c>
       <c r="G119">
         <v>60</v>
@@ -23283,13 +23283,13 @@
         <v>449</v>
       </c>
       <c r="D120" t="s">
+        <v>797</v>
+      </c>
+      <c r="E120" t="s">
         <v>798</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>799</v>
-      </c>
-      <c r="F120" t="s">
-        <v>800</v>
       </c>
       <c r="G120">
         <v>22</v>
@@ -23372,13 +23372,13 @@
         <v>449</v>
       </c>
       <c r="D121" t="s">
+        <v>800</v>
+      </c>
+      <c r="E121" t="s">
         <v>801</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>802</v>
-      </c>
-      <c r="F121" t="s">
-        <v>803</v>
       </c>
       <c r="G121">
         <v>20</v>
@@ -23461,13 +23461,13 @@
         <v>449</v>
       </c>
       <c r="D122" t="s">
+        <v>803</v>
+      </c>
+      <c r="E122" t="s">
         <v>804</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>805</v>
-      </c>
-      <c r="F122" t="s">
-        <v>806</v>
       </c>
       <c r="G122">
         <v>95</v>
@@ -23550,13 +23550,13 @@
         <v>449</v>
       </c>
       <c r="D123" t="s">
+        <v>806</v>
+      </c>
+      <c r="E123" t="s">
         <v>807</v>
       </c>
-      <c r="E123" t="s">
-        <v>808</v>
-      </c>
       <c r="F123" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G123">
         <v>122</v>
@@ -23639,13 +23639,13 @@
         <v>449</v>
       </c>
       <c r="D124" t="s">
+        <v>808</v>
+      </c>
+      <c r="E124" t="s">
         <v>809</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>810</v>
-      </c>
-      <c r="F124" t="s">
-        <v>811</v>
       </c>
       <c r="G124">
         <v>308</v>
@@ -23728,13 +23728,13 @@
         <v>449</v>
       </c>
       <c r="D125" t="s">
+        <v>811</v>
+      </c>
+      <c r="E125" t="s">
         <v>812</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>813</v>
-      </c>
-      <c r="F125" t="s">
-        <v>814</v>
       </c>
       <c r="G125">
         <v>116</v>
@@ -23817,13 +23817,13 @@
         <v>449</v>
       </c>
       <c r="D126" t="s">
+        <v>814</v>
+      </c>
+      <c r="E126" t="s">
         <v>815</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>816</v>
-      </c>
-      <c r="F126" t="s">
-        <v>817</v>
       </c>
       <c r="G126">
         <v>229</v>
@@ -23906,13 +23906,13 @@
         <v>449</v>
       </c>
       <c r="D127" t="s">
+        <v>817</v>
+      </c>
+      <c r="E127" t="s">
         <v>818</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>819</v>
-      </c>
-      <c r="F127" t="s">
-        <v>820</v>
       </c>
       <c r="G127">
         <v>73</v>
@@ -23995,13 +23995,13 @@
         <v>449</v>
       </c>
       <c r="D128" t="s">
+        <v>820</v>
+      </c>
+      <c r="E128" t="s">
         <v>821</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>822</v>
-      </c>
-      <c r="F128" t="s">
-        <v>823</v>
       </c>
       <c r="G128">
         <v>89</v>
@@ -24084,13 +24084,13 @@
         <v>449</v>
       </c>
       <c r="D129" t="s">
+        <v>823</v>
+      </c>
+      <c r="E129" t="s">
         <v>824</v>
       </c>
-      <c r="E129" t="s">
-        <v>825</v>
-      </c>
       <c r="F129" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G129">
         <v>65</v>
@@ -24173,13 +24173,13 @@
         <v>449</v>
       </c>
       <c r="D130" t="s">
+        <v>825</v>
+      </c>
+      <c r="E130" t="s">
         <v>826</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>827</v>
-      </c>
-      <c r="F130" t="s">
-        <v>828</v>
       </c>
       <c r="G130">
         <v>111</v>
@@ -24262,13 +24262,13 @@
         <v>449</v>
       </c>
       <c r="D131" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E131" t="s">
+        <v>828</v>
+      </c>
+      <c r="F131" t="s">
         <v>829</v>
-      </c>
-      <c r="F131" t="s">
-        <v>830</v>
       </c>
       <c r="G131">
         <v>111</v>
@@ -24351,13 +24351,13 @@
         <v>449</v>
       </c>
       <c r="D132" t="s">
+        <v>830</v>
+      </c>
+      <c r="E132" t="s">
         <v>831</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>832</v>
-      </c>
-      <c r="F132" t="s">
-        <v>833</v>
       </c>
       <c r="G132">
         <v>147</v>
@@ -24440,13 +24440,13 @@
         <v>449</v>
       </c>
       <c r="D133" t="s">
+        <v>833</v>
+      </c>
+      <c r="E133" t="s">
         <v>834</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>835</v>
-      </c>
-      <c r="F133" t="s">
-        <v>836</v>
       </c>
       <c r="G133">
         <v>135</v>
@@ -24529,13 +24529,13 @@
         <v>449</v>
       </c>
       <c r="D134" t="s">
+        <v>836</v>
+      </c>
+      <c r="E134" t="s">
         <v>837</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>838</v>
-      </c>
-      <c r="F134" t="s">
-        <v>839</v>
       </c>
       <c r="G134">
         <v>113</v>
@@ -24618,13 +24618,13 @@
         <v>449</v>
       </c>
       <c r="D135" t="s">
+        <v>839</v>
+      </c>
+      <c r="E135" t="s">
         <v>840</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>841</v>
-      </c>
-      <c r="F135" t="s">
-        <v>842</v>
       </c>
       <c r="G135">
         <v>121</v>
@@ -24707,13 +24707,13 @@
         <v>449</v>
       </c>
       <c r="D136" t="s">
+        <v>842</v>
+      </c>
+      <c r="E136" t="s">
         <v>843</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>844</v>
-      </c>
-      <c r="F136" t="s">
-        <v>845</v>
       </c>
       <c r="G136">
         <v>84</v>
@@ -24796,13 +24796,13 @@
         <v>449</v>
       </c>
       <c r="D137" t="s">
+        <v>845</v>
+      </c>
+      <c r="E137" t="s">
         <v>846</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>847</v>
-      </c>
-      <c r="F137" t="s">
-        <v>848</v>
       </c>
       <c r="G137">
         <v>65</v>
@@ -24885,13 +24885,13 @@
         <v>449</v>
       </c>
       <c r="D138" t="s">
+        <v>848</v>
+      </c>
+      <c r="E138" t="s">
         <v>849</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>850</v>
-      </c>
-      <c r="F138" t="s">
-        <v>851</v>
       </c>
       <c r="G138">
         <v>60</v>
@@ -24974,13 +24974,13 @@
         <v>449</v>
       </c>
       <c r="D139" t="s">
+        <v>851</v>
+      </c>
+      <c r="E139" t="s">
         <v>852</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>853</v>
-      </c>
-      <c r="F139" t="s">
-        <v>854</v>
       </c>
       <c r="G139">
         <v>74</v>
@@ -25063,13 +25063,13 @@
         <v>449</v>
       </c>
       <c r="D140" t="s">
+        <v>854</v>
+      </c>
+      <c r="E140" t="s">
         <v>855</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>856</v>
-      </c>
-      <c r="F140" t="s">
-        <v>857</v>
       </c>
       <c r="G140">
         <v>50</v>
@@ -25152,13 +25152,13 @@
         <v>449</v>
       </c>
       <c r="D141" t="s">
+        <v>857</v>
+      </c>
+      <c r="E141" t="s">
         <v>858</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>859</v>
-      </c>
-      <c r="F141" t="s">
-        <v>860</v>
       </c>
       <c r="G141">
         <v>76</v>
@@ -25241,13 +25241,13 @@
         <v>449</v>
       </c>
       <c r="D142" t="s">
+        <v>860</v>
+      </c>
+      <c r="E142" t="s">
         <v>861</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>862</v>
-      </c>
-      <c r="F142" t="s">
-        <v>863</v>
       </c>
       <c r="G142">
         <v>94</v>
@@ -25330,13 +25330,13 @@
         <v>449</v>
       </c>
       <c r="D143" t="s">
+        <v>863</v>
+      </c>
+      <c r="E143" t="s">
         <v>864</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>865</v>
-      </c>
-      <c r="F143" t="s">
-        <v>866</v>
       </c>
       <c r="G143">
         <v>314</v>
@@ -25419,13 +25419,13 @@
         <v>449</v>
       </c>
       <c r="D144" t="s">
+        <v>866</v>
+      </c>
+      <c r="E144" t="s">
         <v>867</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>868</v>
-      </c>
-      <c r="F144" t="s">
-        <v>869</v>
       </c>
       <c r="G144">
         <v>295</v>
@@ -25508,13 +25508,13 @@
         <v>449</v>
       </c>
       <c r="D145" t="s">
+        <v>869</v>
+      </c>
+      <c r="E145" t="s">
         <v>870</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>871</v>
-      </c>
-      <c r="F145" t="s">
-        <v>872</v>
       </c>
       <c r="G145">
         <v>207</v>
@@ -25597,13 +25597,13 @@
         <v>449</v>
       </c>
       <c r="D146" t="s">
+        <v>872</v>
+      </c>
+      <c r="E146" t="s">
         <v>873</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>874</v>
-      </c>
-      <c r="F146" t="s">
-        <v>875</v>
       </c>
       <c r="G146">
         <v>215</v>
@@ -25686,13 +25686,13 @@
         <v>449</v>
       </c>
       <c r="D147" t="s">
+        <v>875</v>
+      </c>
+      <c r="E147" t="s">
         <v>876</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>877</v>
-      </c>
-      <c r="F147" t="s">
-        <v>878</v>
       </c>
       <c r="G147">
         <v>246</v>
@@ -25775,13 +25775,13 @@
         <v>452</v>
       </c>
       <c r="D148" t="s">
+        <v>878</v>
+      </c>
+      <c r="E148" t="s">
         <v>879</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>880</v>
-      </c>
-      <c r="F148" t="s">
-        <v>881</v>
       </c>
       <c r="G148">
         <v>65</v>
@@ -25864,13 +25864,13 @@
         <v>449</v>
       </c>
       <c r="D149" t="s">
+        <v>881</v>
+      </c>
+      <c r="E149" t="s">
         <v>882</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>883</v>
-      </c>
-      <c r="F149" t="s">
-        <v>884</v>
       </c>
       <c r="G149">
         <v>251</v>
@@ -25953,13 +25953,13 @@
         <v>449</v>
       </c>
       <c r="D150" t="s">
+        <v>884</v>
+      </c>
+      <c r="E150" t="s">
         <v>885</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>886</v>
-      </c>
-      <c r="F150" t="s">
-        <v>887</v>
       </c>
       <c r="G150">
         <v>266</v>
@@ -26042,13 +26042,13 @@
         <v>449</v>
       </c>
       <c r="D151" t="s">
+        <v>887</v>
+      </c>
+      <c r="E151" t="s">
         <v>888</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>889</v>
-      </c>
-      <c r="F151" t="s">
-        <v>890</v>
       </c>
       <c r="G151">
         <v>231</v>
@@ -26131,13 +26131,13 @@
         <v>449</v>
       </c>
       <c r="D152" t="s">
+        <v>890</v>
+      </c>
+      <c r="E152" t="s">
         <v>891</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>892</v>
-      </c>
-      <c r="F152" t="s">
-        <v>893</v>
       </c>
       <c r="G152">
         <v>224</v>
@@ -26220,13 +26220,13 @@
         <v>449</v>
       </c>
       <c r="D153" t="s">
+        <v>893</v>
+      </c>
+      <c r="E153" t="s">
         <v>894</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>895</v>
-      </c>
-      <c r="F153" t="s">
-        <v>896</v>
       </c>
       <c r="G153">
         <v>257</v>
@@ -26309,13 +26309,13 @@
         <v>449</v>
       </c>
       <c r="D154" t="s">
+        <v>896</v>
+      </c>
+      <c r="E154" t="s">
         <v>897</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>898</v>
-      </c>
-      <c r="F154" t="s">
-        <v>899</v>
       </c>
       <c r="G154">
         <v>197</v>
@@ -26398,13 +26398,13 @@
         <v>449</v>
       </c>
       <c r="D155" t="s">
+        <v>899</v>
+      </c>
+      <c r="E155" t="s">
         <v>900</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>901</v>
-      </c>
-      <c r="F155" t="s">
-        <v>902</v>
       </c>
       <c r="G155">
         <v>269</v>
@@ -26487,13 +26487,13 @@
         <v>449</v>
       </c>
       <c r="D156" t="s">
+        <v>902</v>
+      </c>
+      <c r="E156" t="s">
         <v>903</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>904</v>
-      </c>
-      <c r="F156" t="s">
-        <v>905</v>
       </c>
       <c r="G156">
         <v>265</v>
@@ -26576,13 +26576,13 @@
         <v>449</v>
       </c>
       <c r="D157" t="s">
+        <v>905</v>
+      </c>
+      <c r="E157" t="s">
         <v>906</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>907</v>
-      </c>
-      <c r="F157" t="s">
-        <v>908</v>
       </c>
       <c r="G157">
         <v>262</v>
@@ -26665,13 +26665,13 @@
         <v>449</v>
       </c>
       <c r="D158" t="s">
+        <v>908</v>
+      </c>
+      <c r="E158" t="s">
         <v>909</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>910</v>
-      </c>
-      <c r="F158" t="s">
-        <v>911</v>
       </c>
       <c r="G158">
         <v>275</v>
@@ -26754,13 +26754,13 @@
         <v>449</v>
       </c>
       <c r="D159" t="s">
+        <v>911</v>
+      </c>
+      <c r="E159" t="s">
         <v>912</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>913</v>
-      </c>
-      <c r="F159" t="s">
-        <v>914</v>
       </c>
       <c r="G159">
         <v>230</v>
@@ -26843,13 +26843,13 @@
         <v>449</v>
       </c>
       <c r="D160" t="s">
+        <v>914</v>
+      </c>
+      <c r="E160" t="s">
         <v>915</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>916</v>
-      </c>
-      <c r="F160" t="s">
-        <v>917</v>
       </c>
       <c r="G160">
         <v>217</v>
@@ -26932,13 +26932,13 @@
         <v>449</v>
       </c>
       <c r="D161" t="s">
+        <v>917</v>
+      </c>
+      <c r="E161" t="s">
         <v>918</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>919</v>
-      </c>
-      <c r="F161" t="s">
-        <v>920</v>
       </c>
       <c r="G161">
         <v>275</v>
@@ -27021,13 +27021,13 @@
         <v>449</v>
       </c>
       <c r="D162" t="s">
+        <v>920</v>
+      </c>
+      <c r="E162" t="s">
         <v>921</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>922</v>
-      </c>
-      <c r="F162" t="s">
-        <v>923</v>
       </c>
       <c r="G162">
         <v>278</v>
@@ -27110,13 +27110,13 @@
         <v>449</v>
       </c>
       <c r="D163" t="s">
+        <v>923</v>
+      </c>
+      <c r="E163" t="s">
         <v>924</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>925</v>
-      </c>
-      <c r="F163" t="s">
-        <v>926</v>
       </c>
       <c r="G163">
         <v>321</v>
@@ -27199,13 +27199,13 @@
         <v>449</v>
       </c>
       <c r="D164" t="s">
+        <v>926</v>
+      </c>
+      <c r="E164" t="s">
         <v>927</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>928</v>
-      </c>
-      <c r="F164" t="s">
-        <v>929</v>
       </c>
       <c r="G164">
         <v>326</v>
@@ -27288,13 +27288,13 @@
         <v>453</v>
       </c>
       <c r="D165" t="s">
+        <v>929</v>
+      </c>
+      <c r="E165" t="s">
         <v>930</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>931</v>
-      </c>
-      <c r="F165" t="s">
-        <v>932</v>
       </c>
       <c r="G165">
         <v>73</v>
@@ -27377,13 +27377,13 @@
         <v>449</v>
       </c>
       <c r="D166" t="s">
+        <v>932</v>
+      </c>
+      <c r="E166" t="s">
         <v>933</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>934</v>
-      </c>
-      <c r="F166" t="s">
-        <v>935</v>
       </c>
       <c r="G166">
         <v>104</v>
@@ -27466,13 +27466,13 @@
         <v>449</v>
       </c>
       <c r="D167" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E167" t="s">
+        <v>935</v>
+      </c>
+      <c r="F167" t="s">
         <v>936</v>
-      </c>
-      <c r="F167" t="s">
-        <v>937</v>
       </c>
       <c r="G167">
         <v>104</v>
@@ -27555,13 +27555,13 @@
         <v>449</v>
       </c>
       <c r="D168" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E168" t="s">
+        <v>937</v>
+      </c>
+      <c r="F168" t="s">
         <v>938</v>
-      </c>
-      <c r="F168" t="s">
-        <v>939</v>
       </c>
       <c r="G168">
         <v>104</v>
@@ -27644,13 +27644,13 @@
         <v>449</v>
       </c>
       <c r="D169" t="s">
+        <v>939</v>
+      </c>
+      <c r="E169" t="s">
         <v>940</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>941</v>
-      </c>
-      <c r="F169" t="s">
-        <v>942</v>
       </c>
       <c r="G169">
         <v>38</v>
@@ -27733,13 +27733,13 @@
         <v>449</v>
       </c>
       <c r="D170" t="s">
+        <v>942</v>
+      </c>
+      <c r="E170" t="s">
         <v>943</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>944</v>
-      </c>
-      <c r="F170" t="s">
-        <v>945</v>
       </c>
       <c r="G170">
         <v>43</v>
@@ -27822,13 +27822,13 @@
         <v>449</v>
       </c>
       <c r="D171" t="s">
+        <v>945</v>
+      </c>
+      <c r="E171" t="s">
         <v>946</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>947</v>
-      </c>
-      <c r="F171" t="s">
-        <v>948</v>
       </c>
       <c r="G171">
         <v>34</v>
@@ -27911,13 +27911,13 @@
         <v>449</v>
       </c>
       <c r="D172" t="s">
+        <v>948</v>
+      </c>
+      <c r="E172" t="s">
         <v>949</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>950</v>
-      </c>
-      <c r="F172" t="s">
-        <v>951</v>
       </c>
       <c r="G172">
         <v>45</v>
@@ -28000,13 +28000,13 @@
         <v>449</v>
       </c>
       <c r="D173" t="s">
+        <v>951</v>
+      </c>
+      <c r="E173" t="s">
         <v>952</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>953</v>
-      </c>
-      <c r="F173" t="s">
-        <v>954</v>
       </c>
       <c r="G173">
         <v>44</v>
@@ -28089,13 +28089,13 @@
         <v>449</v>
       </c>
       <c r="D174" t="s">
+        <v>954</v>
+      </c>
+      <c r="E174" t="s">
         <v>955</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>956</v>
-      </c>
-      <c r="F174" t="s">
-        <v>957</v>
       </c>
       <c r="G174">
         <v>45</v>
@@ -28178,13 +28178,13 @@
         <v>453</v>
       </c>
       <c r="D175" t="s">
+        <v>957</v>
+      </c>
+      <c r="E175" t="s">
         <v>958</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>959</v>
-      </c>
-      <c r="F175" t="s">
-        <v>960</v>
       </c>
       <c r="G175">
         <v>98</v>
@@ -28267,13 +28267,13 @@
         <v>453</v>
       </c>
       <c r="D176" t="s">
+        <v>960</v>
+      </c>
+      <c r="E176" t="s">
         <v>961</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>962</v>
-      </c>
-      <c r="F176" t="s">
-        <v>963</v>
       </c>
       <c r="G176">
         <v>112</v>
@@ -28356,13 +28356,13 @@
         <v>449</v>
       </c>
       <c r="D177" t="s">
+        <v>963</v>
+      </c>
+      <c r="E177" t="s">
         <v>964</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>965</v>
-      </c>
-      <c r="F177" t="s">
-        <v>966</v>
       </c>
       <c r="G177">
         <v>188</v>
@@ -28445,13 +28445,13 @@
         <v>449</v>
       </c>
       <c r="D178" t="s">
+        <v>966</v>
+      </c>
+      <c r="E178" t="s">
         <v>967</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>968</v>
-      </c>
-      <c r="F178" t="s">
-        <v>969</v>
       </c>
       <c r="G178">
         <v>237</v>
@@ -28534,13 +28534,13 @@
         <v>449</v>
       </c>
       <c r="D179" t="s">
+        <v>969</v>
+      </c>
+      <c r="E179" t="s">
         <v>970</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>971</v>
-      </c>
-      <c r="F179" t="s">
-        <v>972</v>
       </c>
       <c r="G179">
         <v>157</v>
@@ -28623,13 +28623,13 @@
         <v>449</v>
       </c>
       <c r="D180" t="s">
+        <v>972</v>
+      </c>
+      <c r="E180" t="s">
         <v>973</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>974</v>
-      </c>
-      <c r="F180" t="s">
-        <v>975</v>
       </c>
       <c r="G180">
         <v>193</v>
@@ -28712,13 +28712,13 @@
         <v>449</v>
       </c>
       <c r="D181" t="s">
+        <v>975</v>
+      </c>
+      <c r="E181" t="s">
         <v>976</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>977</v>
-      </c>
-      <c r="F181" t="s">
-        <v>978</v>
       </c>
       <c r="G181">
         <v>252</v>
@@ -28801,13 +28801,13 @@
         <v>453</v>
       </c>
       <c r="D182" t="s">
+        <v>978</v>
+      </c>
+      <c r="E182" t="s">
         <v>979</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>980</v>
-      </c>
-      <c r="F182" t="s">
-        <v>981</v>
       </c>
       <c r="G182">
         <v>63</v>
@@ -28890,13 +28890,13 @@
         <v>453</v>
       </c>
       <c r="D183" t="s">
+        <v>981</v>
+      </c>
+      <c r="E183" t="s">
         <v>982</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>983</v>
-      </c>
-      <c r="F183" t="s">
-        <v>984</v>
       </c>
       <c r="G183">
         <v>34</v>
@@ -28979,13 +28979,13 @@
         <v>453</v>
       </c>
       <c r="D184" t="s">
+        <v>984</v>
+      </c>
+      <c r="E184" t="s">
         <v>985</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>986</v>
-      </c>
-      <c r="F184" t="s">
-        <v>987</v>
       </c>
       <c r="G184">
         <v>72</v>
@@ -29068,13 +29068,13 @@
         <v>449</v>
       </c>
       <c r="D185" t="s">
+        <v>987</v>
+      </c>
+      <c r="E185" t="s">
         <v>988</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>989</v>
-      </c>
-      <c r="F185" t="s">
-        <v>990</v>
       </c>
       <c r="G185">
         <v>89</v>
@@ -29157,13 +29157,13 @@
         <v>449</v>
       </c>
       <c r="D186" t="s">
+        <v>990</v>
+      </c>
+      <c r="E186" t="s">
         <v>991</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>992</v>
-      </c>
-      <c r="F186" t="s">
-        <v>993</v>
       </c>
       <c r="G186">
         <v>106</v>
@@ -29246,13 +29246,13 @@
         <v>449</v>
       </c>
       <c r="D187" t="s">
+        <v>993</v>
+      </c>
+      <c r="E187" t="s">
         <v>994</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>995</v>
-      </c>
-      <c r="F187" t="s">
-        <v>996</v>
       </c>
       <c r="G187">
         <v>146</v>
@@ -29335,13 +29335,13 @@
         <v>449</v>
       </c>
       <c r="D188" t="s">
+        <v>996</v>
+      </c>
+      <c r="E188" t="s">
         <v>997</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>998</v>
-      </c>
-      <c r="F188" t="s">
-        <v>999</v>
       </c>
       <c r="G188">
         <v>105</v>
@@ -29424,13 +29424,13 @@
         <v>449</v>
       </c>
       <c r="D189" t="s">
+        <v>999</v>
+      </c>
+      <c r="E189" t="s">
         <v>1000</v>
       </c>
-      <c r="E189" t="s">
-        <v>1001</v>
-      </c>
       <c r="F189" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G189">
         <v>150</v>
@@ -29513,13 +29513,13 @@
         <v>449</v>
       </c>
       <c r="D190" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E190" t="s">
         <v>1002</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>1003</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1004</v>
       </c>
       <c r="G190">
         <v>170</v>
@@ -29602,13 +29602,13 @@
         <v>449</v>
       </c>
       <c r="D191" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E191" t="s">
         <v>1005</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>1006</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1007</v>
       </c>
       <c r="G191">
         <v>200</v>
@@ -29691,13 +29691,13 @@
         <v>449</v>
       </c>
       <c r="D192" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E192" t="s">
         <v>1008</v>
       </c>
-      <c r="E192" t="s">
-        <v>1009</v>
-      </c>
       <c r="F192" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G192">
         <v>164</v>
@@ -29780,13 +29780,13 @@
         <v>449</v>
       </c>
       <c r="D193" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E193" t="s">
         <v>1010</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>1011</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1012</v>
       </c>
       <c r="G193">
         <v>204</v>
@@ -29869,13 +29869,13 @@
         <v>454</v>
       </c>
       <c r="D194" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E194" t="s">
         <v>1013</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>1014</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1015</v>
       </c>
       <c r="G194">
         <v>66</v>
@@ -29958,13 +29958,13 @@
         <v>454</v>
       </c>
       <c r="D195" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E195" t="s">
         <v>1016</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>1017</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1018</v>
       </c>
       <c r="G195">
         <v>113</v>
@@ -30047,13 +30047,13 @@
         <v>449</v>
       </c>
       <c r="D196" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E196" t="s">
         <v>1019</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>1020</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1021</v>
       </c>
       <c r="G196">
         <v>118</v>
@@ -30136,13 +30136,13 @@
         <v>449</v>
       </c>
       <c r="D197" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E197" t="s">
         <v>1022</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>1023</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1024</v>
       </c>
       <c r="G197">
         <v>139</v>
@@ -30225,13 +30225,13 @@
         <v>449</v>
       </c>
       <c r="D198" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E198" t="s">
         <v>1025</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>1026</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1027</v>
       </c>
       <c r="G198">
         <v>105</v>
@@ -30314,13 +30314,13 @@
         <v>449</v>
       </c>
       <c r="D199" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E199" t="s">
         <v>1028</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>1029</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1030</v>
       </c>
       <c r="G199">
         <v>208</v>
@@ -30403,13 +30403,13 @@
         <v>456</v>
       </c>
       <c r="D200" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E200" t="s">
         <v>1031</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>1032</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1033</v>
       </c>
       <c r="G200">
         <v>50</v>
@@ -30492,13 +30492,13 @@
         <v>449</v>
       </c>
       <c r="D201" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E201" t="s">
         <v>1034</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>1035</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1036</v>
       </c>
       <c r="G201">
         <v>93</v>
@@ -30581,13 +30581,13 @@
         <v>449</v>
       </c>
       <c r="D202" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E202" t="s">
         <v>1037</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>1038</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1039</v>
       </c>
       <c r="G202">
         <v>16</v>
@@ -30670,13 +30670,13 @@
         <v>449</v>
       </c>
       <c r="D203" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E203" t="s">
         <v>1040</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>1041</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1042</v>
       </c>
       <c r="G203">
         <v>45</v>
@@ -30759,13 +30759,13 @@
         <v>455</v>
       </c>
       <c r="D204" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E204" t="s">
         <v>1043</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>1044</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1045</v>
       </c>
       <c r="G204">
         <v>43</v>
@@ -30848,13 +30848,13 @@
         <v>455</v>
       </c>
       <c r="D205" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E205" t="s">
         <v>1046</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>1047</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1048</v>
       </c>
       <c r="G205">
         <v>128</v>
@@ -30937,13 +30937,13 @@
         <v>449</v>
       </c>
       <c r="D206" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E206" t="s">
         <v>1049</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>1050</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1051</v>
       </c>
       <c r="G206">
         <v>73</v>
@@ -31026,13 +31026,13 @@
         <v>457</v>
       </c>
       <c r="D207" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E207" t="s">
         <v>1052</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>1053</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1054</v>
       </c>
       <c r="G207">
         <v>185</v>
@@ -31115,13 +31115,13 @@
         <v>457</v>
       </c>
       <c r="D208" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E208" t="s">
         <v>1055</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>1056</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1057</v>
       </c>
       <c r="G208">
         <v>80</v>
@@ -31204,13 +31204,13 @@
         <v>457</v>
       </c>
       <c r="D209" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E209" t="s">
         <v>1058</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>1059</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1060</v>
       </c>
       <c r="G209">
         <v>120</v>
@@ -31293,13 +31293,13 @@
         <v>449</v>
       </c>
       <c r="D210" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E210" t="s">
         <v>1061</v>
       </c>
-      <c r="E210" t="s">
-        <v>1062</v>
-      </c>
       <c r="F210" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G210">
         <v>77</v>
@@ -31382,13 +31382,13 @@
         <v>449</v>
       </c>
       <c r="D211" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E211" t="s">
         <v>1063</v>
       </c>
-      <c r="E211" t="s">
-        <v>1064</v>
-      </c>
       <c r="F211" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G211">
         <v>103</v>
@@ -31471,13 +31471,13 @@
         <v>449</v>
       </c>
       <c r="D212" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E212" t="s">
         <v>1065</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>1066</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1067</v>
       </c>
       <c r="G212">
         <v>111</v>
@@ -31560,13 +31560,13 @@
         <v>449</v>
       </c>
       <c r="D213" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E213" t="s">
         <v>1068</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>1069</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1070</v>
       </c>
       <c r="G213">
         <v>280</v>
@@ -31649,13 +31649,13 @@
         <v>449</v>
       </c>
       <c r="D214" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E214" t="s">
         <v>1071</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>1072</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1073</v>
       </c>
       <c r="G214">
         <v>82</v>
@@ -31738,13 +31738,13 @@
         <v>449</v>
       </c>
       <c r="D215" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E215" t="s">
         <v>1074</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>1075</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1076</v>
       </c>
       <c r="G215">
         <v>128</v>
@@ -31827,13 +31827,13 @@
         <v>449</v>
       </c>
       <c r="D216" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E216" t="s">
         <v>1077</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>1078</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1079</v>
       </c>
       <c r="G216">
         <v>82</v>
@@ -31916,13 +31916,13 @@
         <v>449</v>
       </c>
       <c r="D217" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E217" t="s">
         <v>1080</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>1081</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1082</v>
       </c>
       <c r="G217">
         <v>137</v>
@@ -32005,13 +32005,13 @@
         <v>449</v>
       </c>
       <c r="D218" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E218" t="s">
         <v>1083</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>1084</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1085</v>
       </c>
       <c r="G218">
         <v>121</v>
@@ -32094,13 +32094,13 @@
         <v>449</v>
       </c>
       <c r="D219" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E219" t="s">
         <v>1086</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>1087</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1088</v>
       </c>
       <c r="G219">
         <v>310</v>
@@ -32183,13 +32183,13 @@
         <v>449</v>
       </c>
       <c r="D220" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E220" t="s">
         <v>1089</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>1090</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1091</v>
       </c>
       <c r="G220">
         <v>153</v>
@@ -32272,13 +32272,13 @@
         <v>449</v>
       </c>
       <c r="D221" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E221" t="s">
         <v>1092</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>1093</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1094</v>
       </c>
       <c r="G221">
         <v>195</v>
@@ -32361,13 +32361,13 @@
         <v>449</v>
       </c>
       <c r="D222" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E222" t="s">
         <v>1095</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>1096</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1097</v>
       </c>
       <c r="G222">
         <v>231</v>
@@ -32450,13 +32450,13 @@
         <v>449</v>
       </c>
       <c r="D223" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E223" t="s">
         <v>1098</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>1099</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1100</v>
       </c>
       <c r="G223">
         <v>90</v>
@@ -32539,13 +32539,13 @@
         <v>449</v>
       </c>
       <c r="D224" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E224" t="s">
         <v>1101</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>1102</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1103</v>
       </c>
       <c r="G224">
         <v>130</v>
@@ -32628,13 +32628,13 @@
         <v>449</v>
       </c>
       <c r="D225" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E225" t="s">
         <v>1104</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>1105</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1106</v>
       </c>
       <c r="G225">
         <v>110</v>
@@ -32717,13 +32717,13 @@
         <v>449</v>
       </c>
       <c r="D226" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E226" t="s">
         <v>1107</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>1108</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1109</v>
       </c>
       <c r="G226">
         <v>22</v>
@@ -32806,13 +32806,13 @@
         <v>449</v>
       </c>
       <c r="D227" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E227" t="s">
         <v>1110</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>1111</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1112</v>
       </c>
       <c r="G227">
         <v>22</v>
@@ -32895,13 +32895,13 @@
         <v>449</v>
       </c>
       <c r="D228" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E228" t="s">
         <v>1113</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>1114</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1115</v>
       </c>
       <c r="G228">
         <v>22</v>
@@ -32984,13 +32984,13 @@
         <v>449</v>
       </c>
       <c r="D229" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E229" t="s">
         <v>1116</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>1117</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1118</v>
       </c>
       <c r="G229">
         <v>22</v>
@@ -33073,13 +33073,13 @@
         <v>449</v>
       </c>
       <c r="D230" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E230" t="s">
         <v>1119</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>1120</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1121</v>
       </c>
       <c r="G230">
         <v>22</v>
@@ -33162,13 +33162,13 @@
         <v>449</v>
       </c>
       <c r="D231" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E231" t="s">
         <v>1122</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>1123</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1124</v>
       </c>
       <c r="G231">
         <v>20</v>
@@ -33251,13 +33251,13 @@
         <v>449</v>
       </c>
       <c r="D232" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E232" t="s">
         <v>1125</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>1126</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1127</v>
       </c>
       <c r="G232">
         <v>20</v>
@@ -33340,13 +33340,13 @@
         <v>449</v>
       </c>
       <c r="D233" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E233" t="s">
         <v>1128</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>1129</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1130</v>
       </c>
       <c r="G233">
         <v>128</v>
@@ -33429,13 +33429,13 @@
         <v>449</v>
       </c>
       <c r="D234" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E234" t="s">
         <v>1131</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>1132</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1133</v>
       </c>
       <c r="G234">
         <v>78</v>
@@ -33518,13 +33518,13 @@
         <v>449</v>
       </c>
       <c r="D235" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E235" t="s">
         <v>1134</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>1135</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1136</v>
       </c>
       <c r="G235">
         <v>133</v>
@@ -33607,13 +33607,13 @@
         <v>458</v>
       </c>
       <c r="D236" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E236" t="s">
         <v>1137</v>
       </c>
-      <c r="E236" t="s">
-        <v>1138</v>
-      </c>
       <c r="F236" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G236">
         <v>72</v>
@@ -33696,13 +33696,13 @@
         <v>449</v>
       </c>
       <c r="D237" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E237" t="s">
         <v>1139</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>1140</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1141</v>
       </c>
       <c r="G237">
         <v>31</v>
@@ -33785,13 +33785,13 @@
         <v>449</v>
       </c>
       <c r="D238" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E238" t="s">
         <v>1142</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>1143</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1144</v>
       </c>
       <c r="G238">
         <v>130</v>
@@ -33874,13 +33874,13 @@
         <v>449</v>
       </c>
       <c r="D239" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E239" t="s">
         <v>1145</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>1146</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1147</v>
       </c>
       <c r="G239">
         <v>98</v>
@@ -33963,13 +33963,13 @@
         <v>449</v>
       </c>
       <c r="D240" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E240" t="s">
         <v>1148</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>1149</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1150</v>
       </c>
       <c r="G240">
         <v>121</v>
@@ -34052,13 +34052,13 @@
         <v>449</v>
       </c>
       <c r="D241" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E241" t="s">
         <v>1151</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>1152</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1153</v>
       </c>
       <c r="G241">
         <v>50</v>
@@ -34141,13 +34141,13 @@
         <v>449</v>
       </c>
       <c r="D242" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E242" t="s">
         <v>1154</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>1155</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1156</v>
       </c>
       <c r="G242">
         <v>86</v>
@@ -34230,13 +34230,13 @@
         <v>449</v>
       </c>
       <c r="D243" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E243" t="s">
         <v>1157</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>1158</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1159</v>
       </c>
       <c r="G243">
         <v>41</v>
@@ -34319,13 +34319,13 @@
         <v>449</v>
       </c>
       <c r="D244" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E244" t="s">
         <v>1160</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>1161</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1162</v>
       </c>
       <c r="G244">
         <v>68</v>
@@ -34408,13 +34408,13 @@
         <v>449</v>
       </c>
       <c r="D245" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E245" t="s">
         <v>1163</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>1164</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1165</v>
       </c>
       <c r="G245">
         <v>99</v>
@@ -34497,13 +34497,13 @@
         <v>449</v>
       </c>
       <c r="D246" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E246" t="s">
         <v>1166</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>1167</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1168</v>
       </c>
       <c r="G246">
         <v>34</v>
@@ -34586,13 +34586,13 @@
         <v>449</v>
       </c>
       <c r="D247" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E247" t="s">
         <v>1169</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>1170</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1171</v>
       </c>
       <c r="G247">
         <v>73</v>
@@ -34675,13 +34675,13 @@
         <v>449</v>
       </c>
       <c r="D248" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E248" t="s">
         <v>1172</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>1173</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1174</v>
       </c>
       <c r="G248">
         <v>126</v>
@@ -34764,13 +34764,13 @@
         <v>449</v>
       </c>
       <c r="D249" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E249" t="s">
         <v>1175</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>1176</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1177</v>
       </c>
       <c r="G249">
         <v>180</v>
@@ -34853,13 +34853,13 @@
         <v>449</v>
       </c>
       <c r="D250" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E250" t="s">
         <v>1178</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>1179</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1180</v>
       </c>
       <c r="G250">
         <v>57</v>
@@ -34942,13 +34942,13 @@
         <v>449</v>
       </c>
       <c r="D251" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E251" t="s">
         <v>1181</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>1182</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1183</v>
       </c>
       <c r="G251">
         <v>63</v>
@@ -35031,13 +35031,13 @@
         <v>461</v>
       </c>
       <c r="D252" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E252" t="s">
         <v>1184</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>1185</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1186</v>
       </c>
       <c r="G252">
         <v>270</v>
@@ -35120,13 +35120,13 @@
         <v>449</v>
       </c>
       <c r="D253" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E253" t="s">
         <v>1187</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>1188</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1189</v>
       </c>
       <c r="G253">
         <v>137</v>
@@ -35209,13 +35209,13 @@
         <v>449</v>
       </c>
       <c r="D254" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E254" t="s">
         <v>1190</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>1191</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1192</v>
       </c>
       <c r="G254">
         <v>104</v>
@@ -35298,13 +35298,13 @@
         <v>449</v>
       </c>
       <c r="D255" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E255" t="s">
         <v>1193</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>1194</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1195</v>
       </c>
       <c r="G255">
         <v>61</v>
@@ -35387,13 +35387,13 @@
         <v>449</v>
       </c>
       <c r="D256" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E256" t="s">
         <v>1196</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>1197</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1198</v>
       </c>
       <c r="G256">
         <v>69</v>
@@ -35476,13 +35476,13 @@
         <v>449</v>
       </c>
       <c r="D257" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E257" t="s">
         <v>1199</v>
       </c>
-      <c r="E257" t="s">
-        <v>1200</v>
-      </c>
       <c r="F257" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G257">
         <v>153</v>
@@ -35565,13 +35565,13 @@
         <v>449</v>
       </c>
       <c r="D258" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E258" t="s">
         <v>1201</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>1202</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1203</v>
       </c>
       <c r="G258">
         <v>59</v>
@@ -35654,13 +35654,13 @@
         <v>449</v>
       </c>
       <c r="D259" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E259" t="s">
         <v>1204</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>1205</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1206</v>
       </c>
       <c r="G259">
         <v>58</v>
@@ -35743,13 +35743,13 @@
         <v>449</v>
       </c>
       <c r="D260" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E260" t="s">
         <v>1207</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>1208</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1209</v>
       </c>
       <c r="G260">
         <v>73</v>
@@ -35832,13 +35832,13 @@
         <v>449</v>
       </c>
       <c r="D261" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E261" t="s">
         <v>1210</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>1211</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1212</v>
       </c>
       <c r="G261">
         <v>78</v>
@@ -35921,13 +35921,13 @@
         <v>449</v>
       </c>
       <c r="D262" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E262" t="s">
         <v>1213</v>
       </c>
-      <c r="E262" t="s">
-        <v>1214</v>
-      </c>
       <c r="F262" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G262">
         <v>155</v>
@@ -36010,13 +36010,13 @@
         <v>449</v>
       </c>
       <c r="D263" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E263" t="s">
         <v>1215</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>1216</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1217</v>
       </c>
       <c r="G263">
         <v>75</v>
@@ -36099,13 +36099,13 @@
         <v>449</v>
       </c>
       <c r="D264" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E264" t="s">
         <v>1218</v>
       </c>
-      <c r="E264" t="s">
-        <v>1219</v>
-      </c>
       <c r="F264" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G264">
         <v>89</v>
@@ -36188,13 +36188,13 @@
         <v>449</v>
       </c>
       <c r="D265" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E265" t="s">
         <v>1220</v>
       </c>
-      <c r="E265" t="s">
-        <v>1221</v>
-      </c>
       <c r="F265" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G265">
         <v>87</v>
@@ -36277,13 +36277,13 @@
         <v>449</v>
       </c>
       <c r="D266" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E266" t="s">
         <v>1222</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>1223</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1224</v>
       </c>
       <c r="G266">
         <v>189</v>
@@ -36366,13 +36366,13 @@
         <v>449</v>
       </c>
       <c r="D267" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E267" t="s">
         <v>1225</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>1226</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1227</v>
       </c>
       <c r="G267">
         <v>31</v>
@@ -36455,13 +36455,13 @@
         <v>449</v>
       </c>
       <c r="D268" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E268" t="s">
         <v>1228</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>1229</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1230</v>
       </c>
       <c r="G268">
         <v>60</v>
@@ -36544,13 +36544,13 @@
         <v>449</v>
       </c>
       <c r="D269" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E269" t="s">
         <v>1231</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>1232</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1233</v>
       </c>
       <c r="G269">
         <v>33</v>
@@ -36633,13 +36633,13 @@
         <v>449</v>
       </c>
       <c r="D270" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E270" t="s">
         <v>1234</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>1235</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1236</v>
       </c>
       <c r="G270">
         <v>74</v>
@@ -36722,13 +36722,13 @@
         <v>449</v>
       </c>
       <c r="D271" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E271" t="s">
         <v>1237</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>1238</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1239</v>
       </c>
       <c r="G271">
         <v>48</v>
@@ -36811,13 +36811,13 @@
         <v>459</v>
       </c>
       <c r="D272" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E272" t="s">
         <v>1240</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>1241</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1242</v>
       </c>
       <c r="G272">
         <v>126</v>
@@ -36900,13 +36900,13 @@
         <v>449</v>
       </c>
       <c r="D273" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F273" t="s">
         <v>1243</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1244</v>
       </c>
       <c r="G273">
         <v>150</v>
@@ -36989,13 +36989,13 @@
         <v>449</v>
       </c>
       <c r="D274" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F274" t="s">
         <v>1245</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1246</v>
       </c>
       <c r="G274">
         <v>175</v>
@@ -37078,13 +37078,13 @@
         <v>449</v>
       </c>
       <c r="D275" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F275" t="s">
         <v>1247</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1248</v>
       </c>
       <c r="G275">
         <v>225</v>
@@ -37167,13 +37167,13 @@
         <v>449</v>
       </c>
       <c r="D276" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F276" t="s">
         <v>1249</v>
-      </c>
-      <c r="E276" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1250</v>
       </c>
       <c r="G276">
         <v>265</v>
@@ -37256,13 +37256,13 @@
         <v>449</v>
       </c>
       <c r="D277" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F277" t="s">
         <v>1251</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1252</v>
       </c>
       <c r="G277">
         <v>255</v>
@@ -37345,13 +37345,13 @@
         <v>449</v>
       </c>
       <c r="D278" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F278" t="s">
         <v>1253</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1916</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1254</v>
       </c>
       <c r="G278">
         <v>130</v>
@@ -37434,13 +37434,13 @@
         <v>449</v>
       </c>
       <c r="D279" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F279" t="s">
         <v>1255</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1256</v>
       </c>
       <c r="G279">
         <v>252</v>
@@ -37523,13 +37523,13 @@
         <v>449</v>
       </c>
       <c r="D280" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E280" t="s">
         <v>1257</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>1258</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1259</v>
       </c>
       <c r="G280">
         <v>95</v>
@@ -37612,13 +37612,13 @@
         <v>449</v>
       </c>
       <c r="D281" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E281" t="s">
         <v>1260</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>1261</v>
-      </c>
-      <c r="F281" t="s">
-        <v>1262</v>
       </c>
       <c r="G281">
         <v>95</v>
@@ -37701,13 +37701,13 @@
         <v>449</v>
       </c>
       <c r="D282" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E282" t="s">
         <v>1263</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>1264</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1265</v>
       </c>
       <c r="G282">
         <v>121</v>
@@ -37790,13 +37790,13 @@
         <v>449</v>
       </c>
       <c r="D283" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E283" t="s">
         <v>1266</v>
       </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>1267</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1268</v>
       </c>
       <c r="G283">
         <v>201</v>
@@ -37879,13 +37879,13 @@
         <v>449</v>
       </c>
       <c r="D284" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E284" t="s">
         <v>1269</v>
       </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>1270</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1271</v>
       </c>
       <c r="G284">
         <v>144</v>
@@ -37968,13 +37968,13 @@
         <v>449</v>
       </c>
       <c r="D285" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E285" t="s">
         <v>1272</v>
       </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>1273</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1274</v>
       </c>
       <c r="G285">
         <v>175</v>
@@ -38057,13 +38057,13 @@
         <v>449</v>
       </c>
       <c r="D286" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E286" t="s">
         <v>1275</v>
       </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
         <v>1276</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1277</v>
       </c>
       <c r="G286">
         <v>110</v>
@@ -38146,13 +38146,13 @@
         <v>449</v>
       </c>
       <c r="D287" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E287" t="s">
         <v>1278</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>1279</v>
-      </c>
-      <c r="F287" t="s">
-        <v>1280</v>
       </c>
       <c r="G287">
         <v>51</v>
@@ -38235,13 +38235,13 @@
         <v>449</v>
       </c>
       <c r="D288" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E288" t="s">
         <v>1281</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>1282</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1283</v>
       </c>
       <c r="G288">
         <v>87</v>
@@ -38324,13 +38324,13 @@
         <v>460</v>
       </c>
       <c r="D289" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E289" t="s">
         <v>1284</v>
       </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
         <v>1285</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1286</v>
       </c>
       <c r="G289">
         <v>92</v>
@@ -38413,13 +38413,13 @@
         <v>460</v>
       </c>
       <c r="D290" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E290" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F290" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G290">
         <v>92</v>
@@ -38502,13 +38502,13 @@
         <v>449</v>
       </c>
       <c r="D291" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E291" t="s">
         <v>1288</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>1289</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1290</v>
       </c>
       <c r="G291">
         <v>135</v>
@@ -38591,13 +38591,13 @@
         <v>449</v>
       </c>
       <c r="D292" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E292" t="s">
         <v>1291</v>
       </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
         <v>1292</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1293</v>
       </c>
       <c r="G292">
         <v>229</v>
@@ -38680,13 +38680,13 @@
         <v>449</v>
       </c>
       <c r="D293" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E293" t="s">
         <v>1294</v>
       </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
         <v>1295</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1296</v>
       </c>
       <c r="G293">
         <v>57</v>
@@ -38769,13 +38769,13 @@
         <v>449</v>
       </c>
       <c r="D294" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E294" t="s">
         <v>1297</v>
       </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
         <v>1298</v>
-      </c>
-      <c r="F294" t="s">
-        <v>1299</v>
       </c>
       <c r="G294">
         <v>105</v>
@@ -38858,13 +38858,13 @@
         <v>449</v>
       </c>
       <c r="D295" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E295" t="s">
         <v>1300</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>1301</v>
-      </c>
-      <c r="F295" t="s">
-        <v>1302</v>
       </c>
       <c r="G295">
         <v>40</v>
@@ -38947,13 +38947,13 @@
         <v>449</v>
       </c>
       <c r="D296" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E296" t="s">
         <v>1303</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>1304</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1305</v>
       </c>
       <c r="G296">
         <v>66</v>
@@ -39036,13 +39036,13 @@
         <v>449</v>
       </c>
       <c r="D297" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E297" t="s">
         <v>1306</v>
       </c>
-      <c r="E297" t="s">
+      <c r="F297" t="s">
         <v>1307</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1308</v>
       </c>
       <c r="G297">
         <v>47</v>
@@ -39125,13 +39125,13 @@
         <v>449</v>
       </c>
       <c r="D298" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E298" t="s">
         <v>1309</v>
       </c>
-      <c r="E298" t="s">
+      <c r="F298" t="s">
         <v>1310</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1311</v>
       </c>
       <c r="G298">
         <v>65</v>
@@ -39214,13 +39214,13 @@
         <v>449</v>
       </c>
       <c r="D299" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E299" t="s">
         <v>1312</v>
       </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
         <v>1313</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1314</v>
       </c>
       <c r="G299">
         <v>83</v>
@@ -39303,13 +39303,13 @@
         <v>449</v>
       </c>
       <c r="D300" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E300" t="s">
         <v>1315</v>
       </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>1316</v>
-      </c>
-      <c r="F300" t="s">
-        <v>1317</v>
       </c>
       <c r="G300">
         <v>153</v>
@@ -39392,13 +39392,13 @@
         <v>449</v>
       </c>
       <c r="D301" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E301" t="s">
         <v>1318</v>
       </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>1319</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1320</v>
       </c>
       <c r="G301">
         <v>157</v>
@@ -39481,13 +39481,13 @@
         <v>449</v>
       </c>
       <c r="D302" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E302" t="s">
         <v>1321</v>
       </c>
-      <c r="E302" t="s">
+      <c r="F302" t="s">
         <v>1322</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1323</v>
       </c>
       <c r="G302">
         <v>158</v>
@@ -39570,13 +39570,13 @@
         <v>449</v>
       </c>
       <c r="D303" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E303" t="s">
         <v>1324</v>
       </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
         <v>1325</v>
-      </c>
-      <c r="F303" t="s">
-        <v>1326</v>
       </c>
       <c r="G303">
         <v>115</v>
@@ -39659,13 +39659,13 @@
         <v>449</v>
       </c>
       <c r="D304" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E304" t="s">
         <v>1327</v>
       </c>
-      <c r="E304" t="s">
+      <c r="F304" t="s">
         <v>1328</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1329</v>
       </c>
       <c r="G304">
         <v>136</v>
@@ -39748,13 +39748,13 @@
         <v>449</v>
       </c>
       <c r="D305" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E305" t="s">
         <v>1330</v>
       </c>
-      <c r="E305" t="s">
+      <c r="F305" t="s">
         <v>1331</v>
-      </c>
-      <c r="F305" t="s">
-        <v>1332</v>
       </c>
       <c r="G305">
         <v>85</v>
@@ -39837,13 +39837,13 @@
         <v>449</v>
       </c>
       <c r="D306" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E306" t="s">
         <v>1333</v>
       </c>
-      <c r="E306" t="s">
+      <c r="F306" t="s">
         <v>1334</v>
-      </c>
-      <c r="F306" t="s">
-        <v>1335</v>
       </c>
       <c r="G306">
         <v>64</v>
@@ -39926,13 +39926,13 @@
         <v>449</v>
       </c>
       <c r="D307" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E307" t="s">
         <v>1336</v>
       </c>
-      <c r="E307" t="s">
+      <c r="F307" t="s">
         <v>1337</v>
-      </c>
-      <c r="F307" t="s">
-        <v>1338</v>
       </c>
       <c r="G307">
         <v>46</v>
@@ -40015,13 +40015,13 @@
         <v>449</v>
       </c>
       <c r="D308" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E308" t="s">
         <v>1339</v>
       </c>
-      <c r="E308" t="s">
+      <c r="F308" t="s">
         <v>1340</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1341</v>
       </c>
       <c r="G308">
         <v>48</v>
@@ -40104,13 +40104,13 @@
         <v>449</v>
       </c>
       <c r="D309" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="F309" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>1344</v>
       </c>
       <c r="G309">
         <v>34</v>
@@ -40193,13 +40193,13 @@
         <v>449</v>
       </c>
       <c r="D310" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E310" t="s">
         <v>1345</v>
       </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>1346</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1347</v>
       </c>
       <c r="G310">
         <v>37</v>
@@ -40282,13 +40282,13 @@
         <v>449</v>
       </c>
       <c r="D311" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E311" t="s">
         <v>1348</v>
       </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
         <v>1349</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1350</v>
       </c>
       <c r="G311">
         <v>37</v>
@@ -40371,13 +40371,13 @@
         <v>449</v>
       </c>
       <c r="D312" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E312" t="s">
         <v>1351</v>
       </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>1352</v>
-      </c>
-      <c r="F312" t="s">
-        <v>1353</v>
       </c>
       <c r="G312">
         <v>37</v>
@@ -40460,13 +40460,13 @@
         <v>449</v>
       </c>
       <c r="D313" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E313" t="s">
         <v>1354</v>
       </c>
-      <c r="E313" t="s">
+      <c r="F313" t="s">
         <v>1355</v>
-      </c>
-      <c r="F313" t="s">
-        <v>1356</v>
       </c>
       <c r="G313">
         <v>45</v>
@@ -40549,13 +40549,13 @@
         <v>449</v>
       </c>
       <c r="D314" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E314" t="s">
         <v>1357</v>
       </c>
-      <c r="E314" t="s">
+      <c r="F314" t="s">
         <v>1358</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1359</v>
       </c>
       <c r="G314">
         <v>47</v>
@@ -40638,13 +40638,13 @@
         <v>449</v>
       </c>
       <c r="D315" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E315" t="s">
         <v>1360</v>
       </c>
-      <c r="E315" t="s">
+      <c r="F315" t="s">
         <v>1361</v>
-      </c>
-      <c r="F315" t="s">
-        <v>1362</v>
       </c>
       <c r="G315">
         <v>142</v>
@@ -40727,13 +40727,13 @@
         <v>449</v>
       </c>
       <c r="D316" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E316" t="s">
         <v>1363</v>
       </c>
-      <c r="E316" t="s">
+      <c r="F316" t="s">
         <v>1364</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1365</v>
       </c>
       <c r="G316">
         <v>124</v>
@@ -40816,13 +40816,13 @@
         <v>449</v>
       </c>
       <c r="D317" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E317" t="s">
         <v>1366</v>
       </c>
-      <c r="E317" t="s">
+      <c r="F317" t="s">
         <v>1367</v>
-      </c>
-      <c r="F317" t="s">
-        <v>1368</v>
       </c>
       <c r="G317">
         <v>116</v>
@@ -40905,13 +40905,13 @@
         <v>449</v>
       </c>
       <c r="D318" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E318" t="s">
         <v>1369</v>
       </c>
-      <c r="E318" t="s">
+      <c r="F318" t="s">
         <v>1370</v>
-      </c>
-      <c r="F318" t="s">
-        <v>1371</v>
       </c>
       <c r="G318">
         <v>127</v>
@@ -40994,13 +40994,13 @@
         <v>449</v>
       </c>
       <c r="D319" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E319" t="s">
         <v>1372</v>
       </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
         <v>1373</v>
-      </c>
-      <c r="F319" t="s">
-        <v>1374</v>
       </c>
       <c r="G319">
         <v>256</v>
@@ -41083,13 +41083,13 @@
         <v>449</v>
       </c>
       <c r="D320" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E320" t="s">
         <v>1375</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>1376</v>
-      </c>
-      <c r="F320" t="s">
-        <v>1377</v>
       </c>
       <c r="G320">
         <v>116</v>
@@ -41172,13 +41172,13 @@
         <v>449</v>
       </c>
       <c r="D321" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E321" t="s">
         <v>1378</v>
       </c>
-      <c r="E321" t="s">
+      <c r="F321" t="s">
         <v>1379</v>
-      </c>
-      <c r="F321" t="s">
-        <v>1380</v>
       </c>
       <c r="G321">
         <v>131</v>
@@ -41261,13 +41261,13 @@
         <v>449</v>
       </c>
       <c r="D322" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E322" t="s">
         <v>1381</v>
       </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
         <v>1382</v>
-      </c>
-      <c r="F322" t="s">
-        <v>1383</v>
       </c>
       <c r="G322">
         <v>132</v>
@@ -41350,13 +41350,13 @@
         <v>449</v>
       </c>
       <c r="D323" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E323" t="s">
         <v>1384</v>
       </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
         <v>1385</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1386</v>
       </c>
       <c r="G323">
         <v>90</v>
@@ -41439,13 +41439,13 @@
         <v>449</v>
       </c>
       <c r="D324" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E324" t="s">
         <v>1387</v>
       </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>1388</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1389</v>
       </c>
       <c r="G324">
         <v>48</v>
@@ -41528,13 +41528,13 @@
         <v>449</v>
       </c>
       <c r="D325" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E325" t="s">
         <v>1390</v>
       </c>
-      <c r="E325" t="s">
+      <c r="F325" t="s">
         <v>1391</v>
-      </c>
-      <c r="F325" t="s">
-        <v>1392</v>
       </c>
       <c r="G325">
         <v>161</v>
@@ -41617,13 +41617,13 @@
         <v>449</v>
       </c>
       <c r="D326" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E326" t="s">
         <v>1393</v>
       </c>
-      <c r="E326" t="s">
+      <c r="F326" t="s">
         <v>1394</v>
-      </c>
-      <c r="F326" t="s">
-        <v>1395</v>
       </c>
       <c r="G326">
         <v>96</v>
@@ -41706,13 +41706,13 @@
         <v>449</v>
       </c>
       <c r="D327" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E327" t="s">
         <v>1396</v>
       </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
         <v>1397</v>
-      </c>
-      <c r="F327" t="s">
-        <v>1398</v>
       </c>
       <c r="G327">
         <v>153</v>
@@ -41795,13 +41795,13 @@
         <v>449</v>
       </c>
       <c r="D328" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E328" t="s">
         <v>1399</v>
       </c>
-      <c r="E328" t="s">
+      <c r="F328" t="s">
         <v>1400</v>
-      </c>
-      <c r="F328" t="s">
-        <v>1401</v>
       </c>
       <c r="G328">
         <v>57</v>
@@ -41884,13 +41884,13 @@
         <v>449</v>
       </c>
       <c r="D329" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E329" t="s">
         <v>1402</v>
       </c>
-      <c r="E329" t="s">
+      <c r="F329" t="s">
         <v>1403</v>
-      </c>
-      <c r="F329" t="s">
-        <v>1404</v>
       </c>
       <c r="G329">
         <v>60</v>
@@ -41973,13 +41973,13 @@
         <v>449</v>
       </c>
       <c r="D330" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E330" t="s">
         <v>1405</v>
       </c>
-      <c r="E330" t="s">
+      <c r="F330" t="s">
         <v>1406</v>
-      </c>
-      <c r="F330" t="s">
-        <v>1407</v>
       </c>
       <c r="G330">
         <v>90</v>
@@ -42062,13 +42062,13 @@
         <v>449</v>
       </c>
       <c r="D331" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E331" t="s">
         <v>1408</v>
       </c>
-      <c r="E331" t="s">
+      <c r="F331" t="s">
         <v>1409</v>
-      </c>
-      <c r="F331" t="s">
-        <v>1410</v>
       </c>
       <c r="G331">
         <v>137</v>
@@ -42151,13 +42151,13 @@
         <v>449</v>
       </c>
       <c r="D332" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E332" t="s">
         <v>1411</v>
       </c>
-      <c r="E332" t="s">
+      <c r="F332" t="s">
         <v>1412</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1413</v>
       </c>
       <c r="G332">
         <v>24</v>
@@ -42240,13 +42240,13 @@
         <v>449</v>
       </c>
       <c r="D333" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E333" t="s">
         <v>1414</v>
       </c>
-      <c r="E333" t="s">
+      <c r="F333" t="s">
         <v>1415</v>
-      </c>
-      <c r="F333" t="s">
-        <v>1416</v>
       </c>
       <c r="G333">
         <v>94</v>
@@ -42329,13 +42329,13 @@
         <v>449</v>
       </c>
       <c r="D334" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E334" t="s">
         <v>1417</v>
       </c>
-      <c r="E334" t="s">
+      <c r="F334" t="s">
         <v>1418</v>
-      </c>
-      <c r="F334" t="s">
-        <v>1419</v>
       </c>
       <c r="G334">
         <v>96</v>
@@ -42418,13 +42418,13 @@
         <v>449</v>
       </c>
       <c r="D335" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E335" t="s">
         <v>1420</v>
       </c>
-      <c r="E335" t="s">
+      <c r="F335" t="s">
         <v>1421</v>
-      </c>
-      <c r="F335" t="s">
-        <v>1422</v>
       </c>
       <c r="G335">
         <v>126</v>
@@ -42507,13 +42507,13 @@
         <v>462</v>
       </c>
       <c r="D336" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E336" t="s">
         <v>1423</v>
       </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
         <v>1424</v>
-      </c>
-      <c r="F336" t="s">
-        <v>1425</v>
       </c>
       <c r="G336">
         <v>222</v>
@@ -42596,13 +42596,13 @@
         <v>462</v>
       </c>
       <c r="D337" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E337" t="s">
         <v>1426</v>
       </c>
-      <c r="E337" t="s">
+      <c r="F337" t="s">
         <v>1427</v>
-      </c>
-      <c r="F337" t="s">
-        <v>1428</v>
       </c>
       <c r="G337">
         <v>105</v>
@@ -42685,13 +42685,13 @@
         <v>462</v>
       </c>
       <c r="D338" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E338" t="s">
         <v>1429</v>
       </c>
-      <c r="E338" t="s">
+      <c r="F338" t="s">
         <v>1430</v>
-      </c>
-      <c r="F338" t="s">
-        <v>1431</v>
       </c>
       <c r="G338">
         <v>125</v>
@@ -42774,13 +42774,13 @@
         <v>449</v>
       </c>
       <c r="D339" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E339" t="s">
         <v>1432</v>
       </c>
-      <c r="E339" t="s">
+      <c r="F339" t="s">
         <v>1433</v>
-      </c>
-      <c r="F339" t="s">
-        <v>1434</v>
       </c>
       <c r="G339">
         <v>191</v>
@@ -42863,13 +42863,13 @@
         <v>449</v>
       </c>
       <c r="D340" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E340" t="s">
         <v>1435</v>
       </c>
-      <c r="E340" t="s">
+      <c r="F340" t="s">
         <v>1436</v>
-      </c>
-      <c r="F340" t="s">
-        <v>1437</v>
       </c>
       <c r="G340">
         <v>146</v>
@@ -42952,13 +42952,13 @@
         <v>449</v>
       </c>
       <c r="D341" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E341" t="s">
         <v>1438</v>
       </c>
-      <c r="E341" t="s">
-        <v>1439</v>
-      </c>
       <c r="F341" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G341">
         <v>123</v>
@@ -43041,13 +43041,13 @@
         <v>449</v>
       </c>
       <c r="D342" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E342" t="s">
         <v>1440</v>
       </c>
-      <c r="E342" t="s">
+      <c r="F342" t="s">
         <v>1441</v>
-      </c>
-      <c r="F342" t="s">
-        <v>1442</v>
       </c>
       <c r="G342">
         <v>216</v>
@@ -43130,13 +43130,13 @@
         <v>449</v>
       </c>
       <c r="D343" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E343" t="s">
         <v>1443</v>
       </c>
-      <c r="E343" t="s">
+      <c r="F343" t="s">
         <v>1444</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1445</v>
       </c>
       <c r="G343">
         <v>136</v>
@@ -43219,13 +43219,13 @@
         <v>449</v>
       </c>
       <c r="D344" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E344" t="s">
         <v>1446</v>
       </c>
-      <c r="E344" t="s">
+      <c r="F344" t="s">
         <v>1447</v>
-      </c>
-      <c r="F344" t="s">
-        <v>1448</v>
       </c>
       <c r="G344">
         <v>192</v>
@@ -43308,13 +43308,13 @@
         <v>449</v>
       </c>
       <c r="D345" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E345" t="s">
         <v>1449</v>
       </c>
-      <c r="E345" t="s">
+      <c r="F345" t="s">
         <v>1450</v>
-      </c>
-      <c r="F345" t="s">
-        <v>1451</v>
       </c>
       <c r="G345">
         <v>230</v>
@@ -43397,13 +43397,13 @@
         <v>449</v>
       </c>
       <c r="D346" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E346" t="s">
         <v>1452</v>
       </c>
-      <c r="E346" t="s">
-        <v>1453</v>
-      </c>
       <c r="F346" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G346">
         <v>462</v>
@@ -43486,13 +43486,13 @@
         <v>449</v>
       </c>
       <c r="D347" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E347" t="s">
         <v>1454</v>
       </c>
-      <c r="E347" t="s">
+      <c r="F347" t="s">
         <v>1455</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1456</v>
       </c>
       <c r="G347">
         <v>192</v>
@@ -43575,13 +43575,13 @@
         <v>463</v>
       </c>
       <c r="D348" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E348" t="s">
         <v>1457</v>
       </c>
-      <c r="E348" t="s">
+      <c r="F348" t="s">
         <v>1458</v>
-      </c>
-      <c r="F348" t="s">
-        <v>1459</v>
       </c>
       <c r="G348">
         <v>54</v>
@@ -43664,13 +43664,13 @@
         <v>449</v>
       </c>
       <c r="D349" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E349" t="s">
         <v>1460</v>
       </c>
-      <c r="E349" t="s">
+      <c r="F349" t="s">
         <v>1461</v>
-      </c>
-      <c r="F349" t="s">
-        <v>1462</v>
       </c>
       <c r="G349">
         <v>88</v>
@@ -43753,13 +43753,13 @@
         <v>449</v>
       </c>
       <c r="D350" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E350" t="s">
         <v>1463</v>
       </c>
-      <c r="E350" t="s">
+      <c r="F350" t="s">
         <v>1464</v>
-      </c>
-      <c r="F350" t="s">
-        <v>1465</v>
       </c>
       <c r="G350">
         <v>189</v>
@@ -43842,13 +43842,13 @@
         <v>449</v>
       </c>
       <c r="D351" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E351" t="s">
         <v>1466</v>
       </c>
-      <c r="E351" t="s">
+      <c r="F351" t="s">
         <v>1467</v>
-      </c>
-      <c r="F351" t="s">
-        <v>1468</v>
       </c>
       <c r="G351">
         <v>133</v>
@@ -43931,13 +43931,13 @@
         <v>449</v>
       </c>
       <c r="D352" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F352" t="s">
         <v>1469</v>
-      </c>
-      <c r="E352" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F352" t="s">
-        <v>1470</v>
       </c>
       <c r="G352">
         <v>435</v>
@@ -44020,13 +44020,13 @@
         <v>449</v>
       </c>
       <c r="D353" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F353" t="s">
         <v>1471</v>
-      </c>
-      <c r="E353" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F353" t="s">
-        <v>1472</v>
       </c>
       <c r="G353">
         <v>338</v>
@@ -44109,13 +44109,13 @@
         <v>449</v>
       </c>
       <c r="D354" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E354" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F354" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G354">
         <v>351</v>
@@ -44198,13 +44198,13 @@
         <v>449</v>
       </c>
       <c r="D355" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F355" t="s">
         <v>1474</v>
-      </c>
-      <c r="E355" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F355" t="s">
-        <v>1475</v>
       </c>
       <c r="G355">
         <v>406</v>
@@ -44287,13 +44287,13 @@
         <v>449</v>
       </c>
       <c r="D356" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E356" t="s">
         <v>1463</v>
       </c>
-      <c r="E356" t="s">
+      <c r="F356" t="s">
         <v>1464</v>
-      </c>
-      <c r="F356" t="s">
-        <v>1465</v>
       </c>
       <c r="G356">
         <v>189</v>
@@ -44376,13 +44376,13 @@
         <v>449</v>
       </c>
       <c r="D357" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E357" t="s">
         <v>1466</v>
       </c>
-      <c r="E357" t="s">
+      <c r="F357" t="s">
         <v>1467</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1468</v>
       </c>
       <c r="G357">
         <v>133</v>
@@ -44465,13 +44465,13 @@
         <v>449</v>
       </c>
       <c r="D358" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E358" t="s">
         <v>1476</v>
       </c>
-      <c r="E358" t="s">
+      <c r="F358" t="s">
         <v>1477</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1478</v>
       </c>
       <c r="G358">
         <v>125</v>
@@ -44554,13 +44554,13 @@
         <v>449</v>
       </c>
       <c r="D359" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E359" t="s">
         <v>1479</v>
       </c>
-      <c r="E359" t="s">
+      <c r="F359" t="s">
         <v>1480</v>
-      </c>
-      <c r="F359" t="s">
-        <v>1481</v>
       </c>
       <c r="G359">
         <v>300</v>
@@ -44643,13 +44643,13 @@
         <v>449</v>
       </c>
       <c r="D360" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E360" t="s">
         <v>1482</v>
       </c>
-      <c r="E360" t="s">
-        <v>1483</v>
-      </c>
       <c r="F360" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G360">
         <v>36</v>
@@ -44732,13 +44732,13 @@
         <v>449</v>
       </c>
       <c r="D361" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E361" t="s">
         <v>1484</v>
       </c>
-      <c r="E361" t="s">
+      <c r="F361" t="s">
         <v>1485</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1486</v>
       </c>
       <c r="G361">
         <v>92</v>
@@ -44821,13 +44821,13 @@
         <v>449</v>
       </c>
       <c r="D362" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E362" t="s">
         <v>1487</v>
       </c>
-      <c r="E362" t="s">
+      <c r="F362" t="s">
         <v>1488</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1489</v>
       </c>
       <c r="G362">
         <v>139</v>
@@ -44910,13 +44910,13 @@
         <v>449</v>
       </c>
       <c r="D363" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E363" t="s">
         <v>1490</v>
       </c>
-      <c r="E363" t="s">
+      <c r="F363" t="s">
         <v>1491</v>
-      </c>
-      <c r="F363" t="s">
-        <v>1492</v>
       </c>
       <c r="G363">
         <v>188</v>
@@ -44999,13 +44999,13 @@
         <v>449</v>
       </c>
       <c r="D364" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E364" t="s">
         <v>1493</v>
       </c>
-      <c r="E364" t="s">
+      <c r="F364" t="s">
         <v>1494</v>
-      </c>
-      <c r="F364" t="s">
-        <v>1495</v>
       </c>
       <c r="G364">
         <v>195</v>
@@ -45088,13 +45088,13 @@
         <v>449</v>
       </c>
       <c r="D365" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E365" t="s">
         <v>1496</v>
       </c>
-      <c r="E365" t="s">
+      <c r="F365" t="s">
         <v>1497</v>
-      </c>
-      <c r="F365" t="s">
-        <v>1498</v>
       </c>
       <c r="G365">
         <v>54</v>
@@ -45177,13 +45177,13 @@
         <v>449</v>
       </c>
       <c r="D366" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E366" t="s">
         <v>1499</v>
       </c>
-      <c r="E366" t="s">
+      <c r="F366" t="s">
         <v>1500</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1501</v>
       </c>
       <c r="G366">
         <v>55</v>
@@ -45266,13 +45266,13 @@
         <v>464</v>
       </c>
       <c r="D367" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E367" t="s">
         <v>1502</v>
       </c>
-      <c r="E367" t="s">
+      <c r="F367" t="s">
         <v>1503</v>
-      </c>
-      <c r="F367" t="s">
-        <v>1504</v>
       </c>
       <c r="G367">
         <v>132</v>
@@ -45355,13 +45355,13 @@
         <v>464</v>
       </c>
       <c r="D368" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E368" t="s">
         <v>1505</v>
       </c>
-      <c r="E368" t="s">
+      <c r="F368" t="s">
         <v>1506</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1507</v>
       </c>
       <c r="G368">
         <v>138</v>
@@ -45444,13 +45444,13 @@
         <v>464</v>
       </c>
       <c r="D369" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E369" t="s">
         <v>1508</v>
       </c>
-      <c r="E369" t="s">
+      <c r="F369" t="s">
         <v>1509</v>
-      </c>
-      <c r="F369" t="s">
-        <v>1510</v>
       </c>
       <c r="G369">
         <v>80</v>
@@ -45533,13 +45533,13 @@
         <v>449</v>
       </c>
       <c r="D370" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E370" t="s">
         <v>1511</v>
       </c>
-      <c r="E370" t="s">
+      <c r="F370" t="s">
         <v>1512</v>
-      </c>
-      <c r="F370" t="s">
-        <v>1513</v>
       </c>
       <c r="G370">
         <v>87</v>
@@ -45622,13 +45622,13 @@
         <v>449</v>
       </c>
       <c r="D371" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E371" t="s">
         <v>1514</v>
       </c>
-      <c r="E371" t="s">
+      <c r="F371" t="s">
         <v>1515</v>
-      </c>
-      <c r="F371" t="s">
-        <v>1516</v>
       </c>
       <c r="G371">
         <v>79</v>
@@ -45711,13 +45711,13 @@
         <v>449</v>
       </c>
       <c r="D372" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E372" t="s">
         <v>1517</v>
       </c>
-      <c r="E372" t="s">
+      <c r="F372" t="s">
         <v>1518</v>
-      </c>
-      <c r="F372" t="s">
-        <v>1519</v>
       </c>
       <c r="G372">
         <v>124</v>
@@ -45800,13 +45800,13 @@
         <v>449</v>
       </c>
       <c r="D373" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E373" t="s">
         <v>1520</v>
       </c>
-      <c r="E373" t="s">
+      <c r="F373" t="s">
         <v>1521</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1522</v>
       </c>
       <c r="G373">
         <v>130</v>
@@ -45889,13 +45889,13 @@
         <v>449</v>
       </c>
       <c r="D374" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E374" t="s">
         <v>1523</v>
       </c>
-      <c r="E374" t="s">
+      <c r="F374" t="s">
         <v>1524</v>
-      </c>
-      <c r="F374" t="s">
-        <v>1525</v>
       </c>
       <c r="G374">
         <v>36</v>
@@ -45978,13 +45978,13 @@
         <v>449</v>
       </c>
       <c r="D375" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E375" t="s">
         <v>1526</v>
       </c>
-      <c r="E375" t="s">
+      <c r="F375" t="s">
         <v>1527</v>
-      </c>
-      <c r="F375" t="s">
-        <v>1528</v>
       </c>
       <c r="G375">
         <v>91</v>
@@ -46067,13 +46067,13 @@
         <v>449</v>
       </c>
       <c r="D376" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E376" t="s">
         <v>1529</v>
       </c>
-      <c r="E376" t="s">
+      <c r="F376" t="s">
         <v>1530</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1531</v>
       </c>
       <c r="G376">
         <v>210</v>
@@ -46156,13 +46156,13 @@
         <v>449</v>
       </c>
       <c r="D377" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E377" t="s">
         <v>1532</v>
       </c>
-      <c r="E377" t="s">
+      <c r="F377" t="s">
         <v>1533</v>
-      </c>
-      <c r="F377" t="s">
-        <v>1534</v>
       </c>
       <c r="G377">
         <v>44</v>
@@ -46245,13 +46245,13 @@
         <v>449</v>
       </c>
       <c r="D378" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E378" t="s">
         <v>1535</v>
       </c>
-      <c r="E378" t="s">
+      <c r="F378" t="s">
         <v>1536</v>
-      </c>
-      <c r="F378" t="s">
-        <v>1537</v>
       </c>
       <c r="G378">
         <v>60</v>
@@ -46334,13 +46334,13 @@
         <v>449</v>
       </c>
       <c r="D379" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E379" t="s">
         <v>1538</v>
       </c>
-      <c r="E379" t="s">
+      <c r="F379" t="s">
         <v>1539</v>
-      </c>
-      <c r="F379" t="s">
-        <v>1540</v>
       </c>
       <c r="G379">
         <v>65</v>
@@ -46423,13 +46423,13 @@
         <v>449</v>
       </c>
       <c r="D380" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E380" t="s">
         <v>1541</v>
       </c>
-      <c r="E380" t="s">
+      <c r="F380" t="s">
         <v>1542</v>
-      </c>
-      <c r="F380" t="s">
-        <v>1543</v>
       </c>
       <c r="G380">
         <v>181</v>
@@ -46512,13 +46512,13 @@
         <v>449</v>
       </c>
       <c r="D381" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E381" t="s">
         <v>1544</v>
       </c>
-      <c r="E381" t="s">
+      <c r="F381" t="s">
         <v>1545</v>
-      </c>
-      <c r="F381" t="s">
-        <v>1546</v>
       </c>
       <c r="G381">
         <v>104</v>
@@ -46601,13 +46601,13 @@
         <v>449</v>
       </c>
       <c r="D382" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E382" t="s">
         <v>1547</v>
       </c>
-      <c r="E382" t="s">
+      <c r="F382" t="s">
         <v>1548</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1549</v>
       </c>
       <c r="G382">
         <v>97</v>
@@ -46690,13 +46690,13 @@
         <v>449</v>
       </c>
       <c r="D383" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E383" t="s">
         <v>1550</v>
       </c>
-      <c r="E383" t="s">
+      <c r="F383" t="s">
         <v>1551</v>
-      </c>
-      <c r="F383" t="s">
-        <v>1552</v>
       </c>
       <c r="G383">
         <v>51</v>
@@ -46779,13 +46779,13 @@
         <v>449</v>
       </c>
       <c r="D384" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E384" t="s">
         <v>1553</v>
       </c>
-      <c r="E384" t="s">
+      <c r="F384" t="s">
         <v>1554</v>
-      </c>
-      <c r="F384" t="s">
-        <v>1555</v>
       </c>
       <c r="G384">
         <v>59</v>
@@ -46868,13 +46868,13 @@
         <v>449</v>
       </c>
       <c r="D385" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E385" t="s">
         <v>1556</v>
       </c>
-      <c r="E385" t="s">
+      <c r="F385" t="s">
         <v>1557</v>
-      </c>
-      <c r="F385" t="s">
-        <v>1558</v>
       </c>
       <c r="G385">
         <v>71</v>
@@ -46957,13 +46957,13 @@
         <v>449</v>
       </c>
       <c r="D386" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E386" t="s">
         <v>1559</v>
       </c>
-      <c r="E386" t="s">
+      <c r="F386" t="s">
         <v>1560</v>
-      </c>
-      <c r="F386" t="s">
-        <v>1561</v>
       </c>
       <c r="G386">
         <v>299</v>
@@ -47046,13 +47046,13 @@
         <v>449</v>
       </c>
       <c r="D387" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E387" t="s">
         <v>1562</v>
       </c>
-      <c r="E387" t="s">
+      <c r="F387" t="s">
         <v>1563</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1564</v>
       </c>
       <c r="G387">
         <v>75</v>
@@ -47135,13 +47135,13 @@
         <v>449</v>
       </c>
       <c r="D388" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E388" t="s">
         <v>1565</v>
       </c>
-      <c r="E388" t="s">
+      <c r="F388" t="s">
         <v>1566</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1567</v>
       </c>
       <c r="G388">
         <v>150</v>
@@ -47224,13 +47224,13 @@
         <v>450</v>
       </c>
       <c r="D389" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E389" t="s">
         <v>1568</v>
       </c>
-      <c r="E389" t="s">
-        <v>1569</v>
-      </c>
       <c r="F389" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G389">
         <v>109</v>
@@ -47313,13 +47313,13 @@
         <v>449</v>
       </c>
       <c r="D390" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E390" t="s">
         <v>1570</v>
       </c>
-      <c r="E390" t="s">
+      <c r="F390" t="s">
         <v>1571</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1572</v>
       </c>
       <c r="G390">
         <v>61</v>
@@ -47402,13 +47402,13 @@
         <v>449</v>
       </c>
       <c r="D391" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E391" t="s">
         <v>1573</v>
       </c>
-      <c r="E391" t="s">
-        <v>1574</v>
-      </c>
       <c r="F391" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G391">
         <v>236</v>
@@ -47491,13 +47491,13 @@
         <v>449</v>
       </c>
       <c r="D392" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E392" t="s">
         <v>1575</v>
       </c>
-      <c r="E392" t="s">
+      <c r="F392" t="s">
         <v>1576</v>
-      </c>
-      <c r="F392" t="s">
-        <v>1577</v>
       </c>
       <c r="G392">
         <v>466</v>
@@ -47580,13 +47580,13 @@
         <v>449</v>
       </c>
       <c r="D393" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E393" t="s">
         <v>1578</v>
       </c>
-      <c r="E393" t="s">
+      <c r="F393" t="s">
         <v>1579</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1580</v>
       </c>
       <c r="G393">
         <v>89</v>
@@ -47669,13 +47669,13 @@
         <v>449</v>
       </c>
       <c r="D394" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E394" t="s">
         <v>1581</v>
       </c>
-      <c r="E394" t="s">
+      <c r="F394" t="s">
         <v>1582</v>
-      </c>
-      <c r="F394" t="s">
-        <v>1583</v>
       </c>
       <c r="G394">
         <v>205</v>
@@ -47758,13 +47758,13 @@
         <v>449</v>
       </c>
       <c r="D395" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E395" t="s">
         <v>1584</v>
       </c>
-      <c r="E395" t="s">
+      <c r="F395" t="s">
         <v>1585</v>
-      </c>
-      <c r="F395" t="s">
-        <v>1586</v>
       </c>
       <c r="G395">
         <v>217</v>
@@ -47847,13 +47847,13 @@
         <v>449</v>
       </c>
       <c r="D396" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E396" t="s">
         <v>1587</v>
       </c>
-      <c r="E396" t="s">
+      <c r="F396" t="s">
         <v>1588</v>
-      </c>
-      <c r="F396" t="s">
-        <v>1589</v>
       </c>
       <c r="G396">
         <v>410</v>
@@ -47936,13 +47936,13 @@
         <v>465</v>
       </c>
       <c r="D397" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E397" t="s">
         <v>1590</v>
       </c>
-      <c r="E397" t="s">
+      <c r="F397" t="s">
         <v>1591</v>
-      </c>
-      <c r="F397" t="s">
-        <v>1592</v>
       </c>
       <c r="G397">
         <v>77</v>
@@ -48025,13 +48025,13 @@
         <v>465</v>
       </c>
       <c r="D398" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E398" t="s">
         <v>1593</v>
       </c>
-      <c r="E398" t="s">
+      <c r="F398" t="s">
         <v>1594</v>
-      </c>
-      <c r="F398" t="s">
-        <v>1595</v>
       </c>
       <c r="G398">
         <v>68</v>
@@ -48114,13 +48114,13 @@
         <v>465</v>
       </c>
       <c r="D399" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E399" t="s">
         <v>1596</v>
       </c>
-      <c r="E399" t="s">
+      <c r="F399" t="s">
         <v>1597</v>
-      </c>
-      <c r="F399" t="s">
-        <v>1598</v>
       </c>
       <c r="G399">
         <v>74</v>
@@ -48203,13 +48203,13 @@
         <v>465</v>
       </c>
       <c r="D400" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E400" t="s">
         <v>1599</v>
       </c>
-      <c r="E400" t="s">
+      <c r="F400" t="s">
         <v>1600</v>
-      </c>
-      <c r="F400" t="s">
-        <v>1601</v>
       </c>
       <c r="G400">
         <v>67</v>
@@ -48292,13 +48292,13 @@
         <v>449</v>
       </c>
       <c r="D401" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E401" t="s">
         <v>1602</v>
       </c>
-      <c r="E401" t="s">
-        <v>1603</v>
-      </c>
       <c r="F401" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G401">
         <v>148</v>
@@ -48381,13 +48381,13 @@
         <v>449</v>
       </c>
       <c r="D402" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E402" t="s">
         <v>1604</v>
       </c>
-      <c r="E402" t="s">
+      <c r="F402" t="s">
         <v>1605</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1606</v>
       </c>
       <c r="G402">
         <v>58</v>
@@ -48470,13 +48470,13 @@
         <v>449</v>
       </c>
       <c r="D403" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E403" t="s">
         <v>1607</v>
       </c>
-      <c r="E403" t="s">
+      <c r="F403" t="s">
         <v>1608</v>
-      </c>
-      <c r="F403" t="s">
-        <v>1609</v>
       </c>
       <c r="G403">
         <v>64</v>
@@ -48559,13 +48559,13 @@
         <v>449</v>
       </c>
       <c r="D404" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E404" t="s">
         <v>1610</v>
       </c>
-      <c r="E404" t="s">
+      <c r="F404" t="s">
         <v>1611</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1612</v>
       </c>
       <c r="G404">
         <v>84</v>
@@ -48648,13 +48648,13 @@
         <v>449</v>
       </c>
       <c r="D405" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E405" t="s">
         <v>1613</v>
       </c>
-      <c r="E405" t="s">
+      <c r="F405" t="s">
         <v>1614</v>
-      </c>
-      <c r="F405" t="s">
-        <v>1615</v>
       </c>
       <c r="G405">
         <v>136</v>
@@ -48737,13 +48737,13 @@
         <v>449</v>
       </c>
       <c r="D406" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E406" t="s">
         <v>1616</v>
       </c>
-      <c r="E406" t="s">
+      <c r="F406" t="s">
         <v>1617</v>
-      </c>
-      <c r="F406" t="s">
-        <v>1618</v>
       </c>
       <c r="G406">
         <v>63</v>
@@ -48826,13 +48826,13 @@
         <v>449</v>
       </c>
       <c r="D407" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E407" t="s">
         <v>1619</v>
       </c>
-      <c r="E407" t="s">
+      <c r="F407" t="s">
         <v>1620</v>
-      </c>
-      <c r="F407" t="s">
-        <v>1621</v>
       </c>
       <c r="G407">
         <v>102</v>
@@ -48915,13 +48915,13 @@
         <v>449</v>
       </c>
       <c r="D408" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E408" t="s">
         <v>1622</v>
       </c>
-      <c r="E408" t="s">
+      <c r="F408" t="s">
         <v>1623</v>
-      </c>
-      <c r="F408" t="s">
-        <v>1624</v>
       </c>
       <c r="G408">
         <v>93</v>
@@ -49004,13 +49004,13 @@
         <v>449</v>
       </c>
       <c r="D409" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E409" t="s">
         <v>1625</v>
       </c>
-      <c r="E409" t="s">
+      <c r="F409" t="s">
         <v>1626</v>
-      </c>
-      <c r="F409" t="s">
-        <v>1627</v>
       </c>
       <c r="G409">
         <v>77</v>
@@ -49093,13 +49093,13 @@
         <v>449</v>
       </c>
       <c r="D410" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E410" t="s">
         <v>1628</v>
       </c>
-      <c r="E410" t="s">
+      <c r="F410" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>1630</v>
       </c>
       <c r="G410">
         <v>69</v>
@@ -49182,13 +49182,13 @@
         <v>449</v>
       </c>
       <c r="D411" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E411" t="s">
         <v>1631</v>
       </c>
-      <c r="E411" t="s">
+      <c r="F411" t="s">
         <v>1632</v>
-      </c>
-      <c r="F411" t="s">
-        <v>1633</v>
       </c>
       <c r="G411">
         <v>24</v>
@@ -49271,13 +49271,13 @@
         <v>449</v>
       </c>
       <c r="D412" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E412" t="s">
         <v>1634</v>
       </c>
-      <c r="E412" t="s">
+      <c r="F412" t="s">
         <v>1635</v>
-      </c>
-      <c r="F412" t="s">
-        <v>1636</v>
       </c>
       <c r="G412">
         <v>285</v>
@@ -49360,13 +49360,13 @@
         <v>449</v>
       </c>
       <c r="D413" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E413" t="s">
         <v>1637</v>
       </c>
-      <c r="E413" t="s">
+      <c r="F413" t="s">
         <v>1638</v>
-      </c>
-      <c r="F413" t="s">
-        <v>1639</v>
       </c>
       <c r="G413">
         <v>151</v>
@@ -49446,16 +49446,16 @@
         <v>358</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="D414" s="1" t="s">
+      <c r="E414" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>1642</v>
-      </c>
       <c r="F414" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G414">
         <v>164</v>
@@ -49538,13 +49538,13 @@
         <v>449</v>
       </c>
       <c r="D415" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E415" t="s">
         <v>1643</v>
       </c>
-      <c r="E415" t="s">
+      <c r="F415" t="s">
         <v>1644</v>
-      </c>
-      <c r="F415" t="s">
-        <v>1645</v>
       </c>
       <c r="G415">
         <v>66</v>
@@ -49627,13 +49627,13 @@
         <v>449</v>
       </c>
       <c r="D416" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E416" t="s">
         <v>1646</v>
       </c>
-      <c r="E416" t="s">
+      <c r="F416" t="s">
         <v>1647</v>
-      </c>
-      <c r="F416" t="s">
-        <v>1648</v>
       </c>
       <c r="G416">
         <v>71</v>
@@ -49716,13 +49716,13 @@
         <v>449</v>
       </c>
       <c r="D417" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E417" t="s">
         <v>1649</v>
       </c>
-      <c r="E417" t="s">
+      <c r="F417" t="s">
         <v>1650</v>
-      </c>
-      <c r="F417" t="s">
-        <v>1651</v>
       </c>
       <c r="G417">
         <v>30</v>
@@ -49805,13 +49805,13 @@
         <v>449</v>
       </c>
       <c r="D418" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E418" t="s">
         <v>1652</v>
       </c>
-      <c r="E418" t="s">
+      <c r="F418" t="s">
         <v>1653</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1654</v>
       </c>
       <c r="G418">
         <v>113</v>
@@ -49894,13 +49894,13 @@
         <v>466</v>
       </c>
       <c r="D419" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E419" t="s">
         <v>1655</v>
       </c>
-      <c r="E419" t="s">
+      <c r="F419" t="s">
         <v>1656</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1657</v>
       </c>
       <c r="G419">
         <v>26</v>
@@ -49983,13 +49983,13 @@
         <v>466</v>
       </c>
       <c r="D420" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E420" t="s">
         <v>1658</v>
       </c>
-      <c r="E420" t="s">
+      <c r="F420" t="s">
         <v>1659</v>
-      </c>
-      <c r="F420" t="s">
-        <v>1660</v>
       </c>
       <c r="G420">
         <v>215</v>
@@ -50069,16 +50069,16 @@
         <v>369</v>
       </c>
       <c r="C421" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D421" t="s">
         <v>1661</v>
       </c>
-      <c r="D421" t="s">
+      <c r="E421" t="s">
         <v>1662</v>
       </c>
-      <c r="E421" t="s">
+      <c r="F421" t="s">
         <v>1663</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1664</v>
       </c>
       <c r="G421">
         <v>199</v>
@@ -50158,16 +50158,16 @@
         <v>369</v>
       </c>
       <c r="C422" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D422" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E422" t="s">
         <v>1665</v>
       </c>
-      <c r="E422" t="s">
+      <c r="F422" t="s">
         <v>1666</v>
-      </c>
-      <c r="F422" t="s">
-        <v>1667</v>
       </c>
       <c r="G422">
         <v>220</v>
@@ -50247,16 +50247,16 @@
         <v>369</v>
       </c>
       <c r="C423" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D423" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E423" t="s">
         <v>1668</v>
       </c>
-      <c r="E423" t="s">
+      <c r="F423" t="s">
         <v>1669</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1670</v>
       </c>
       <c r="G423">
         <v>659</v>
@@ -50339,13 +50339,13 @@
         <v>449</v>
       </c>
       <c r="D424" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E424" t="s">
         <v>1671</v>
       </c>
-      <c r="E424" t="s">
+      <c r="F424" t="s">
         <v>1672</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1673</v>
       </c>
       <c r="G424">
         <v>160</v>
@@ -50428,13 +50428,13 @@
         <v>449</v>
       </c>
       <c r="D425" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E425" t="s">
         <v>1674</v>
       </c>
-      <c r="E425" t="s">
+      <c r="F425" t="s">
         <v>1675</v>
-      </c>
-      <c r="F425" t="s">
-        <v>1676</v>
       </c>
       <c r="G425">
         <v>240</v>
@@ -50517,13 +50517,13 @@
         <v>449</v>
       </c>
       <c r="D426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E426" t="s">
         <v>1677</v>
       </c>
-      <c r="E426" t="s">
+      <c r="F426" t="s">
         <v>1678</v>
-      </c>
-      <c r="F426" t="s">
-        <v>1679</v>
       </c>
       <c r="G426">
         <v>84</v>
@@ -50606,13 +50606,13 @@
         <v>449</v>
       </c>
       <c r="D427" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E427" t="s">
         <v>1680</v>
       </c>
-      <c r="E427" t="s">
+      <c r="F427" t="s">
         <v>1681</v>
-      </c>
-      <c r="F427" t="s">
-        <v>1682</v>
       </c>
       <c r="G427">
         <v>90</v>
@@ -50695,13 +50695,13 @@
         <v>449</v>
       </c>
       <c r="D428" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E428" t="s">
         <v>1683</v>
       </c>
-      <c r="E428" t="s">
+      <c r="F428" t="s">
         <v>1684</v>
-      </c>
-      <c r="F428" t="s">
-        <v>1685</v>
       </c>
       <c r="G428">
         <v>187</v>
@@ -50784,13 +50784,13 @@
         <v>467</v>
       </c>
       <c r="D429" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E429" t="s">
         <v>1686</v>
       </c>
-      <c r="E429" t="s">
+      <c r="F429" t="s">
         <v>1687</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1688</v>
       </c>
       <c r="G429">
         <v>39</v>
@@ -50873,13 +50873,13 @@
         <v>467</v>
       </c>
       <c r="D430" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E430" t="s">
         <v>1689</v>
       </c>
-      <c r="E430" t="s">
+      <c r="F430" t="s">
         <v>1690</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1691</v>
       </c>
       <c r="G430">
         <v>50</v>
@@ -50962,13 +50962,13 @@
         <v>449</v>
       </c>
       <c r="D431" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E431" t="s">
         <v>1692</v>
       </c>
-      <c r="E431" t="s">
+      <c r="F431" t="s">
         <v>1693</v>
-      </c>
-      <c r="F431" t="s">
-        <v>1694</v>
       </c>
       <c r="G431">
         <v>204</v>
@@ -51051,13 +51051,13 @@
         <v>449</v>
       </c>
       <c r="D432" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E432" t="s">
         <v>1695</v>
       </c>
-      <c r="E432" t="s">
+      <c r="F432" t="s">
         <v>1696</v>
-      </c>
-      <c r="F432" t="s">
-        <v>1697</v>
       </c>
       <c r="G432">
         <v>59</v>
@@ -51140,13 +51140,13 @@
         <v>449</v>
       </c>
       <c r="D433" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E433" t="s">
         <v>1698</v>
       </c>
-      <c r="E433" t="s">
+      <c r="F433" t="s">
         <v>1699</v>
-      </c>
-      <c r="F433" t="s">
-        <v>1700</v>
       </c>
       <c r="G433">
         <v>26</v>
@@ -51229,13 +51229,13 @@
         <v>449</v>
       </c>
       <c r="D434" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E434" t="s">
         <v>1701</v>
       </c>
-      <c r="E434" t="s">
+      <c r="F434" t="s">
         <v>1702</v>
-      </c>
-      <c r="F434" t="s">
-        <v>1703</v>
       </c>
       <c r="G434">
         <v>224</v>
@@ -51318,13 +51318,13 @@
         <v>468</v>
       </c>
       <c r="D435" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E435" t="s">
         <v>1704</v>
       </c>
-      <c r="E435" t="s">
+      <c r="F435" t="s">
         <v>1705</v>
-      </c>
-      <c r="F435" t="s">
-        <v>1706</v>
       </c>
       <c r="G435">
         <v>32</v>
@@ -51407,13 +51407,13 @@
         <v>449</v>
       </c>
       <c r="D436" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E436" t="s">
         <v>1707</v>
       </c>
-      <c r="E436" t="s">
+      <c r="F436" t="s">
         <v>1708</v>
-      </c>
-      <c r="F436" t="s">
-        <v>1709</v>
       </c>
       <c r="G436">
         <v>280</v>
@@ -51496,13 +51496,13 @@
         <v>449</v>
       </c>
       <c r="D437" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E437" t="s">
         <v>1710</v>
       </c>
-      <c r="E437" t="s">
+      <c r="F437" t="s">
         <v>1711</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1712</v>
       </c>
       <c r="G437">
         <v>108</v>
@@ -51585,13 +51585,13 @@
         <v>449</v>
       </c>
       <c r="D438" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E438" t="s">
         <v>1713</v>
       </c>
-      <c r="E438" t="s">
+      <c r="F438" t="s">
         <v>1714</v>
-      </c>
-      <c r="F438" t="s">
-        <v>1715</v>
       </c>
       <c r="G438">
         <v>85</v>
@@ -51674,13 +51674,13 @@
         <v>449</v>
       </c>
       <c r="D439" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E439" t="s">
         <v>1716</v>
       </c>
-      <c r="E439" t="s">
+      <c r="F439" t="s">
         <v>1717</v>
-      </c>
-      <c r="F439" t="s">
-        <v>1718</v>
       </c>
       <c r="G439">
         <v>68</v>
@@ -51763,13 +51763,13 @@
         <v>449</v>
       </c>
       <c r="D440" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E440" t="s">
         <v>1719</v>
       </c>
-      <c r="E440" t="s">
+      <c r="F440" t="s">
         <v>1720</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1721</v>
       </c>
       <c r="G440">
         <v>25</v>
@@ -51852,13 +51852,13 @@
         <v>449</v>
       </c>
       <c r="D441" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E441" t="s">
         <v>1722</v>
       </c>
-      <c r="E441" t="s">
+      <c r="F441" t="s">
         <v>1723</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1724</v>
       </c>
       <c r="G441">
         <v>57</v>
@@ -51941,13 +51941,13 @@
         <v>449</v>
       </c>
       <c r="D442" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E442" t="s">
         <v>1725</v>
       </c>
-      <c r="E442" t="s">
+      <c r="F442" t="s">
         <v>1726</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1727</v>
       </c>
       <c r="G442">
         <v>134</v>
@@ -52030,13 +52030,13 @@
         <v>449</v>
       </c>
       <c r="D443" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E443" t="s">
         <v>1728</v>
       </c>
-      <c r="E443" t="s">
+      <c r="F443" t="s">
         <v>1729</v>
-      </c>
-      <c r="F443" t="s">
-        <v>1730</v>
       </c>
       <c r="G443">
         <v>183</v>
@@ -52119,13 +52119,13 @@
         <v>449</v>
       </c>
       <c r="D444" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E444" t="s">
         <v>1731</v>
       </c>
-      <c r="E444" t="s">
+      <c r="F444" t="s">
         <v>1732</v>
-      </c>
-      <c r="F444" t="s">
-        <v>1733</v>
       </c>
       <c r="G444">
         <v>69</v>
@@ -52208,13 +52208,13 @@
         <v>449</v>
       </c>
       <c r="D445" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E445" t="s">
         <v>1734</v>
       </c>
-      <c r="E445" t="s">
+      <c r="F445" t="s">
         <v>1735</v>
-      </c>
-      <c r="F445" t="s">
-        <v>1736</v>
       </c>
       <c r="G445">
         <v>231</v>
@@ -52297,13 +52297,13 @@
         <v>449</v>
       </c>
       <c r="D446" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E446" t="s">
         <v>1737</v>
       </c>
-      <c r="E446" t="s">
+      <c r="F446" t="s">
         <v>1738</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1739</v>
       </c>
       <c r="G446">
         <v>9</v>
@@ -52386,13 +52386,13 @@
         <v>449</v>
       </c>
       <c r="D447" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E447" t="s">
         <v>1740</v>
       </c>
-      <c r="E447" t="s">
+      <c r="F447" t="s">
         <v>1741</v>
-      </c>
-      <c r="F447" t="s">
-        <v>1742</v>
       </c>
       <c r="G447">
         <v>21</v>
@@ -52475,13 +52475,13 @@
         <v>449</v>
       </c>
       <c r="D448" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E448" t="s">
         <v>1743</v>
       </c>
-      <c r="E448" t="s">
+      <c r="F448" t="s">
         <v>1744</v>
-      </c>
-      <c r="F448" t="s">
-        <v>1745</v>
       </c>
       <c r="G448">
         <v>82</v>
@@ -52561,16 +52561,16 @@
         <v>423</v>
       </c>
       <c r="C449" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D449" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E449" t="s">
         <v>1746</v>
       </c>
-      <c r="E449" t="s">
+      <c r="F449" t="s">
         <v>1747</v>
-      </c>
-      <c r="F449" t="s">
-        <v>1748</v>
       </c>
       <c r="G449">
         <v>113</v>
@@ -52650,16 +52650,16 @@
         <v>423</v>
       </c>
       <c r="C450" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D450" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E450" t="s">
         <v>1749</v>
       </c>
-      <c r="E450" t="s">
-        <v>1750</v>
-      </c>
       <c r="F450" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G450">
         <v>68</v>
@@ -52739,16 +52739,16 @@
         <v>423</v>
       </c>
       <c r="C451" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D451" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E451" t="s">
         <v>1751</v>
       </c>
-      <c r="E451" t="s">
+      <c r="F451" t="s">
         <v>1752</v>
-      </c>
-      <c r="F451" t="s">
-        <v>1753</v>
       </c>
       <c r="G451">
         <v>96</v>
@@ -52831,13 +52831,13 @@
         <v>449</v>
       </c>
       <c r="D452" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E452" t="s">
         <v>1754</v>
       </c>
-      <c r="E452" t="s">
+      <c r="F452" t="s">
         <v>1755</v>
-      </c>
-      <c r="F452" t="s">
-        <v>1756</v>
       </c>
       <c r="G452">
         <v>286</v>
@@ -52920,13 +52920,13 @@
         <v>449</v>
       </c>
       <c r="D453" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E453" t="s">
         <v>1757</v>
       </c>
-      <c r="E453" t="s">
+      <c r="F453" t="s">
         <v>1758</v>
-      </c>
-      <c r="F453" t="s">
-        <v>1759</v>
       </c>
       <c r="G453">
         <v>118</v>
@@ -53009,13 +53009,13 @@
         <v>449</v>
       </c>
       <c r="D454" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E454" t="s">
         <v>1760</v>
       </c>
-      <c r="E454" t="s">
+      <c r="F454" t="s">
         <v>1761</v>
-      </c>
-      <c r="F454" t="s">
-        <v>1762</v>
       </c>
       <c r="G454">
         <v>50</v>
@@ -53098,13 +53098,13 @@
         <v>449</v>
       </c>
       <c r="D455" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E455" t="s">
         <v>1763</v>
       </c>
-      <c r="E455" t="s">
+      <c r="F455" t="s">
         <v>1764</v>
-      </c>
-      <c r="F455" t="s">
-        <v>1765</v>
       </c>
       <c r="G455">
         <v>197</v>
@@ -53187,13 +53187,13 @@
         <v>449</v>
       </c>
       <c r="D456" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E456" t="s">
         <v>1766</v>
       </c>
-      <c r="E456" t="s">
+      <c r="F456" t="s">
         <v>1767</v>
-      </c>
-      <c r="F456" t="s">
-        <v>1768</v>
       </c>
       <c r="G456">
         <v>92</v>
@@ -53276,13 +53276,13 @@
         <v>449</v>
       </c>
       <c r="D457" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E457" t="s">
         <v>1769</v>
       </c>
-      <c r="E457" t="s">
+      <c r="F457" t="s">
         <v>1770</v>
-      </c>
-      <c r="F457" t="s">
-        <v>1771</v>
       </c>
       <c r="G457">
         <v>94</v>
@@ -53365,13 +53365,13 @@
         <v>449</v>
       </c>
       <c r="D458" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E458" t="s">
         <v>1772</v>
       </c>
-      <c r="E458" t="s">
+      <c r="F458" t="s">
         <v>1773</v>
-      </c>
-      <c r="F458" t="s">
-        <v>1774</v>
       </c>
       <c r="G458">
         <v>87</v>
@@ -53454,13 +53454,13 @@
         <v>449</v>
       </c>
       <c r="D459" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E459" t="s">
         <v>1775</v>
       </c>
-      <c r="E459" t="s">
+      <c r="F459" t="s">
         <v>1776</v>
-      </c>
-      <c r="F459" t="s">
-        <v>1777</v>
       </c>
       <c r="G459">
         <v>22</v>
@@ -53543,13 +53543,13 @@
         <v>449</v>
       </c>
       <c r="D460" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E460" t="s">
         <v>1778</v>
       </c>
-      <c r="E460" t="s">
+      <c r="F460" t="s">
         <v>1779</v>
-      </c>
-      <c r="F460" t="s">
-        <v>1780</v>
       </c>
       <c r="G460">
         <v>26</v>
@@ -53632,13 +53632,13 @@
         <v>449</v>
       </c>
       <c r="D461" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E461" t="s">
         <v>1781</v>
       </c>
-      <c r="E461" t="s">
-        <v>1782</v>
-      </c>
       <c r="F461" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G461">
         <v>18</v>
@@ -53721,13 +53721,13 @@
         <v>449</v>
       </c>
       <c r="D462" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E462" t="s">
         <v>1783</v>
       </c>
-      <c r="E462" t="s">
+      <c r="F462" s="1" t="s">
         <v>1784</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>1785</v>
       </c>
       <c r="G462">
         <v>188</v>
@@ -53810,13 +53810,13 @@
         <v>449</v>
       </c>
       <c r="D463" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E463" t="s">
         <v>1786</v>
       </c>
-      <c r="E463" t="s">
+      <c r="F463" t="s">
         <v>1787</v>
-      </c>
-      <c r="F463" t="s">
-        <v>1788</v>
       </c>
       <c r="G463">
         <v>165</v>
@@ -53899,13 +53899,13 @@
         <v>449</v>
       </c>
       <c r="D464" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E464" t="s">
         <v>1789</v>
       </c>
-      <c r="E464" t="s">
+      <c r="F464" t="s">
         <v>1790</v>
-      </c>
-      <c r="F464" t="s">
-        <v>1791</v>
       </c>
       <c r="G464">
         <v>95</v>
@@ -53988,13 +53988,13 @@
         <v>449</v>
       </c>
       <c r="D465" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E465" t="s">
         <v>1792</v>
       </c>
-      <c r="E465" t="s">
+      <c r="F465" t="s">
         <v>1793</v>
-      </c>
-      <c r="F465" t="s">
-        <v>1794</v>
       </c>
       <c r="G465">
         <v>31</v>
@@ -54077,13 +54077,13 @@
         <v>449</v>
       </c>
       <c r="D466" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E466" t="s">
         <v>1795</v>
       </c>
-      <c r="E466" t="s">
+      <c r="F466" t="s">
         <v>1796</v>
-      </c>
-      <c r="F466" t="s">
-        <v>1797</v>
       </c>
       <c r="G466">
         <v>67</v>
@@ -54166,13 +54166,13 @@
         <v>449</v>
       </c>
       <c r="D467" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E467" t="s">
         <v>1798</v>
       </c>
-      <c r="E467" t="s">
+      <c r="F467" t="s">
         <v>1799</v>
-      </c>
-      <c r="F467" t="s">
-        <v>1800</v>
       </c>
       <c r="G467">
         <v>51</v>
@@ -54255,13 +54255,13 @@
         <v>449</v>
       </c>
       <c r="D468" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E468" t="s">
         <v>1801</v>
       </c>
-      <c r="E468" t="s">
+      <c r="F468" t="s">
         <v>1802</v>
-      </c>
-      <c r="F468" t="s">
-        <v>1803</v>
       </c>
       <c r="G468">
         <v>105</v>
@@ -54344,13 +54344,13 @@
         <v>449</v>
       </c>
       <c r="D469" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E469" t="s">
         <v>1804</v>
       </c>
-      <c r="E469" t="s">
+      <c r="F469" t="s">
         <v>1805</v>
-      </c>
-      <c r="F469" t="s">
-        <v>1806</v>
       </c>
       <c r="G469">
         <v>115</v>
@@ -54433,13 +54433,13 @@
         <v>449</v>
       </c>
       <c r="D470" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E470" t="s">
         <v>1807</v>
       </c>
-      <c r="E470" t="s">
-        <v>1808</v>
-      </c>
       <c r="F470" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G470">
         <v>290</v>
@@ -54522,13 +54522,13 @@
         <v>449</v>
       </c>
       <c r="D471" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E471" t="s">
         <v>1809</v>
       </c>
-      <c r="E471" t="s">
-        <v>1810</v>
-      </c>
       <c r="F471" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G471">
         <v>269</v>
@@ -54611,13 +54611,13 @@
         <v>449</v>
       </c>
       <c r="D472" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E472" t="s">
         <v>1811</v>
       </c>
-      <c r="E472" t="s">
-        <v>1812</v>
-      </c>
       <c r="F472" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G472">
         <v>365</v>
@@ -54700,13 +54700,13 @@
         <v>449</v>
       </c>
       <c r="D473" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E473" t="s">
         <v>1813</v>
       </c>
-      <c r="E473" t="s">
-        <v>1814</v>
-      </c>
       <c r="F473" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G473">
         <v>171</v>
@@ -54789,13 +54789,13 @@
         <v>449</v>
       </c>
       <c r="D474" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E474" t="s">
         <v>1815</v>
       </c>
-      <c r="E474" t="s">
-        <v>1816</v>
-      </c>
       <c r="F474" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G474">
         <v>77</v>
@@ -54878,13 +54878,13 @@
         <v>449</v>
       </c>
       <c r="D475" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E475" t="s">
         <v>1817</v>
       </c>
-      <c r="E475" t="s">
-        <v>1818</v>
-      </c>
       <c r="F475" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G475">
         <v>325</v>
@@ -54967,13 +54967,13 @@
         <v>449</v>
       </c>
       <c r="D476" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E476" t="s">
         <v>1819</v>
       </c>
-      <c r="E476" t="s">
-        <v>1820</v>
-      </c>
       <c r="F476" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="G476">
         <v>271</v>
@@ -55056,13 +55056,13 @@
         <v>449</v>
       </c>
       <c r="D477" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E477" t="s">
         <v>1821</v>
       </c>
-      <c r="E477" t="s">
-        <v>1822</v>
-      </c>
       <c r="F477" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G477">
         <v>68</v>
@@ -55145,13 +55145,13 @@
         <v>449</v>
       </c>
       <c r="D478" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E478" t="s">
         <v>1823</v>
       </c>
-      <c r="E478" t="s">
-        <v>1824</v>
-      </c>
       <c r="F478" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G478">
         <v>164</v>
@@ -55234,13 +55234,13 @@
         <v>449</v>
       </c>
       <c r="D479" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E479" t="s">
         <v>1825</v>
       </c>
-      <c r="E479" t="s">
+      <c r="F479" t="s">
         <v>1826</v>
-      </c>
-      <c r="F479" t="s">
-        <v>1827</v>
       </c>
       <c r="G479">
         <v>108</v>
@@ -55323,13 +55323,13 @@
         <v>449</v>
       </c>
       <c r="D480" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E480" t="s">
         <v>1828</v>
       </c>
-      <c r="E480" t="s">
+      <c r="F480" t="s">
         <v>1829</v>
-      </c>
-      <c r="F480" t="s">
-        <v>1830</v>
       </c>
       <c r="G480">
         <v>75</v>
@@ -55412,13 +55412,13 @@
         <v>449</v>
       </c>
       <c r="D481" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E481" t="s">
         <v>1831</v>
       </c>
-      <c r="E481" t="s">
+      <c r="F481" t="s">
         <v>1832</v>
-      </c>
-      <c r="F481" t="s">
-        <v>1833</v>
       </c>
       <c r="G481">
         <v>122</v>
@@ -55501,13 +55501,13 @@
         <v>449</v>
       </c>
       <c r="D482" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E482" t="s">
         <v>1834</v>
       </c>
-      <c r="E482" t="s">
+      <c r="F482" t="s">
         <v>1835</v>
-      </c>
-      <c r="F482" t="s">
-        <v>1836</v>
       </c>
       <c r="G482">
         <v>59</v>
@@ -55590,13 +55590,13 @@
         <v>449</v>
       </c>
       <c r="D483" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E483" t="s">
         <v>1837</v>
       </c>
-      <c r="E483" t="s">
+      <c r="F483" t="s">
         <v>1838</v>
-      </c>
-      <c r="F483" t="s">
-        <v>1839</v>
       </c>
       <c r="G483">
         <v>110</v>
@@ -55679,13 +55679,13 @@
         <v>449</v>
       </c>
       <c r="D484" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E484" t="s">
         <v>1840</v>
       </c>
-      <c r="E484" t="s">
+      <c r="F484" t="s">
         <v>1841</v>
-      </c>
-      <c r="F484" t="s">
-        <v>1842</v>
       </c>
       <c r="G484">
         <v>106</v>
@@ -55768,13 +55768,13 @@
         <v>449</v>
       </c>
       <c r="D485" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E485" t="s">
         <v>1843</v>
       </c>
-      <c r="E485" t="s">
+      <c r="F485" t="s">
         <v>1844</v>
-      </c>
-      <c r="F485" t="s">
-        <v>1845</v>
       </c>
       <c r="G485">
         <v>43</v>
@@ -55857,13 +55857,13 @@
         <v>449</v>
       </c>
       <c r="D486" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E486" t="s">
         <v>1846</v>
       </c>
-      <c r="E486" t="s">
+      <c r="F486" t="s">
         <v>1847</v>
-      </c>
-      <c r="F486" t="s">
-        <v>1848</v>
       </c>
       <c r="G486">
         <v>200</v>
@@ -55946,13 +55946,13 @@
         <v>449</v>
       </c>
       <c r="D487" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E487" t="s">
         <v>1849</v>
       </c>
-      <c r="E487" t="s">
+      <c r="F487" t="s">
         <v>1850</v>
-      </c>
-      <c r="F487" t="s">
-        <v>1851</v>
       </c>
       <c r="G487">
         <v>182</v>
@@ -56035,13 +56035,13 @@
         <v>449</v>
       </c>
       <c r="D488" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E488" t="s">
         <v>1852</v>
       </c>
-      <c r="E488" t="s">
+      <c r="F488" t="s">
         <v>1853</v>
-      </c>
-      <c r="F488" t="s">
-        <v>1854</v>
       </c>
       <c r="G488">
         <v>111</v>
@@ -56124,13 +56124,13 @@
         <v>449</v>
       </c>
       <c r="D489" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E489" t="s">
         <v>1855</v>
       </c>
-      <c r="E489" t="s">
+      <c r="F489" t="s">
         <v>1856</v>
-      </c>
-      <c r="F489" t="s">
-        <v>1857</v>
       </c>
       <c r="G489">
         <v>70</v>
@@ -56213,13 +56213,13 @@
         <v>449</v>
       </c>
       <c r="D490" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E490" t="s">
         <v>1858</v>
       </c>
-      <c r="E490" t="s">
+      <c r="F490" t="s">
         <v>1859</v>
-      </c>
-      <c r="F490" t="s">
-        <v>1860</v>
       </c>
       <c r="G490">
         <v>42</v>
@@ -56302,13 +56302,13 @@
         <v>449</v>
       </c>
       <c r="D491" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E491" t="s">
         <v>1861</v>
       </c>
-      <c r="E491" t="s">
+      <c r="F491" t="s">
         <v>1862</v>
-      </c>
-      <c r="F491" t="s">
-        <v>1863</v>
       </c>
       <c r="G491">
         <v>205</v>
@@ -56391,13 +56391,13 @@
         <v>449</v>
       </c>
       <c r="D492" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E492" t="s">
         <v>1864</v>
       </c>
-      <c r="E492" t="s">
+      <c r="F492" t="s">
         <v>1865</v>
-      </c>
-      <c r="F492" t="s">
-        <v>1866</v>
       </c>
       <c r="G492">
         <v>141</v>
@@ -56480,13 +56480,13 @@
         <v>449</v>
       </c>
       <c r="D493" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E493" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F493" t="s">
         <v>1841</v>
-      </c>
-      <c r="F493" t="s">
-        <v>1842</v>
       </c>
       <c r="G493">
         <v>242</v>
@@ -56569,13 +56569,13 @@
         <v>449</v>
       </c>
       <c r="D494" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E494" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F494" t="s">
         <v>1841</v>
-      </c>
-      <c r="F494" t="s">
-        <v>1842</v>
       </c>
       <c r="G494">
         <v>55</v>
@@ -56658,13 +56658,13 @@
         <v>449</v>
       </c>
       <c r="D495" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E495" t="s">
         <v>1869</v>
       </c>
-      <c r="E495" t="s">
+      <c r="F495" t="s">
         <v>1870</v>
-      </c>
-      <c r="F495" t="s">
-        <v>1871</v>
       </c>
       <c r="G495">
         <v>66</v>
@@ -56747,13 +56747,13 @@
         <v>449</v>
       </c>
       <c r="D496" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E496" t="s">
         <v>1872</v>
       </c>
-      <c r="E496" t="s">
-        <v>1873</v>
-      </c>
       <c r="F496" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G496">
         <v>20</v>
@@ -56836,13 +56836,13 @@
         <v>449</v>
       </c>
       <c r="D497" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E497" t="s">
         <v>1874</v>
       </c>
-      <c r="E497" t="s">
+      <c r="F497" t="s">
         <v>1875</v>
-      </c>
-      <c r="F497" t="s">
-        <v>1876</v>
       </c>
       <c r="G497">
         <v>14</v>
@@ -56925,13 +56925,13 @@
         <v>449</v>
       </c>
       <c r="D498" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E498" t="s">
         <v>1877</v>
       </c>
-      <c r="E498" t="s">
+      <c r="F498" t="s">
         <v>1878</v>
-      </c>
-      <c r="F498" t="s">
-        <v>1879</v>
       </c>
       <c r="G498">
         <v>13</v>
@@ -57014,13 +57014,13 @@
         <v>449</v>
       </c>
       <c r="D499" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E499" t="s">
         <v>1880</v>
       </c>
-      <c r="E499" t="s">
-        <v>1881</v>
-      </c>
       <c r="F499" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G499">
         <v>301</v>
@@ -57103,13 +57103,13 @@
         <v>449</v>
       </c>
       <c r="D500" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E500" t="s">
         <v>1882</v>
       </c>
-      <c r="E500" t="s">
+      <c r="F500" t="s">
         <v>1883</v>
-      </c>
-      <c r="F500" t="s">
-        <v>1884</v>
       </c>
       <c r="G500">
         <v>136</v>
@@ -57192,13 +57192,13 @@
         <v>449</v>
       </c>
       <c r="D501" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F501" t="s">
         <v>1885</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F501" t="s">
-        <v>1886</v>
       </c>
       <c r="G501">
         <v>134</v>
@@ -57281,13 +57281,13 @@
         <v>449</v>
       </c>
       <c r="D502" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E502" t="s">
         <v>1887</v>
       </c>
-      <c r="E502" t="s">
+      <c r="F502" s="1" t="s">
         <v>1888</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>1889</v>
       </c>
       <c r="G502">
         <v>149</v>
@@ -57370,13 +57370,13 @@
         <v>449</v>
       </c>
       <c r="D503" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E503" t="s">
         <v>1128</v>
       </c>
-      <c r="E503" t="s">
+      <c r="F503" t="s">
         <v>1129</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1130</v>
       </c>
       <c r="G503">
         <v>128</v>
@@ -57459,13 +57459,13 @@
         <v>449</v>
       </c>
       <c r="D504" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E504" t="s">
         <v>1131</v>
       </c>
-      <c r="E504" t="s">
+      <c r="F504" t="s">
         <v>1132</v>
-      </c>
-      <c r="F504" t="s">
-        <v>1133</v>
       </c>
       <c r="G504">
         <v>78</v>
@@ -57545,16 +57545,16 @@
         <v>5</v>
       </c>
       <c r="C505" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E505" t="s">
         <v>1890</v>
       </c>
-      <c r="D505" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1891</v>
-      </c>
       <c r="F505" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G505">
         <v>109</v>

--- a/data/Edge_IoT/Dataset.xlsx
+++ b/data/Edge_IoT/Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbo/Documents/GitLabanonym/tlparser-extended/data/Edge_IoT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbo/Documents/GitHub/tlparser/data/Edge_IoT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C24EBA-BE2C-CF40-80EE-5A6BD410A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B5F9E-D73F-7343-97F3-D02F097CC12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29660" windowHeight="21380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51220" yWindow="520" windowWidth="51160" windowHeight="28260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllStudies" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,26 @@
     <sheet name="LTLreq-formPairs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllStudies!$A$2:$B$452</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LTLStudies!$A$3:$B$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllStudies!$A$1:$B$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LTLreq-formPairs'!$A$1:$AC$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LTLStudies!$A$1:$B$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tlparserStudies!$A$1:$B$151</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5959,6 +5972,9 @@
     <t>Entropy (LOPs &amp; TOPs)</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Text Length</t>
   </si>
   <si>
@@ -5969,9 +5985,6 @@
   </si>
   <si>
     <t>impl.</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -6007,7 +6020,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6017,12 +6030,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6054,14 +6061,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6069,6 +6075,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6351,9 +6361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B453"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6465,7 +6475,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -9982,6 +9992,7 @@
       <c r="B453" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B452" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9990,9 +10001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828CB824-53B1-42C8-9F27-225528FB4776}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10001,10 +10012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -11433,6 +11444,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B179" xr:uid="{828CB824-53B1-42C8-9F27-225528FB4776}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11441,9 +11453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C223756D-0C4E-4318-808C-11A599688163}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11452,10 +11464,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -12660,6 +12672,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B151" xr:uid="{C223756D-0C4E-4318-808C-11A599688163}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12668,7 +12681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91E31BD-241C-4C17-AA64-60DBB8C4D378}">
   <dimension ref="A1:AC505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -12688,91 +12701,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>1959</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>1960</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>1962</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1963</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>1979</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>1975</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1956</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>1957</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>1959</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>1960</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>1962</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>1963</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>1978</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>1964</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>1965</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>1966</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>1967</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>1968</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>1969</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>1970</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>1971</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>1972</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>1973</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -12799,7 +12812,7 @@
         <v>287</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>49</v>
@@ -14131,7 +14144,7 @@
         <v>274</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>37</v>
@@ -22049,7 +22062,7 @@
         <v>163</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>27</v>
@@ -22405,7 +22418,7 @@
         <v>73</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>11</v>
@@ -22494,7 +22507,7 @@
         <v>72</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>11</v>
@@ -22583,7 +22596,7 @@
         <v>72</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>11</v>
@@ -22672,7 +22685,7 @@
         <v>72</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>11</v>
@@ -31572,7 +31585,7 @@
         <v>280</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>48</v>
@@ -33619,7 +33632,7 @@
         <v>72</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>13</v>
@@ -35043,7 +35056,7 @@
         <v>270</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>54</v>
@@ -37001,7 +37014,7 @@
         <v>175</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>26</v>
@@ -37090,7 +37103,7 @@
         <v>225</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>33</v>
@@ -37179,7 +37192,7 @@
         <v>265</v>
       </c>
       <c r="H276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I276">
         <v>41</v>
@@ -37268,7 +37281,7 @@
         <v>255</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I277">
         <v>38</v>
@@ -39582,7 +39595,7 @@
         <v>115</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
         <v>18</v>
@@ -41095,7 +41108,7 @@
         <v>116</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320">
         <v>20</v>
@@ -41540,7 +41553,7 @@
         <v>161</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>26</v>
@@ -41629,7 +41642,7 @@
         <v>96</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>13</v>
@@ -41718,7 +41731,7 @@
         <v>153</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
         <v>25</v>
@@ -42786,7 +42799,7 @@
         <v>191</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I339">
         <v>27</v>
@@ -43409,7 +43422,7 @@
         <v>462</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I346">
         <v>86</v>
@@ -47414,7 +47427,7 @@
         <v>236</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391">
         <v>37</v>
@@ -47503,7 +47516,7 @@
         <v>466</v>
       </c>
       <c r="H392">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I392">
         <v>77</v>
@@ -47592,7 +47605,7 @@
         <v>89</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393">
         <v>14</v>
@@ -47859,7 +47872,7 @@
         <v>410</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I396">
         <v>56</v>
@@ -48304,7 +48317,7 @@
         <v>148</v>
       </c>
       <c r="H401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I401">
         <v>22</v>
@@ -50440,7 +50453,7 @@
         <v>240</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I425">
         <v>45</v>
@@ -51241,7 +51254,7 @@
         <v>224</v>
       </c>
       <c r="H434">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I434">
         <v>41</v>
@@ -51508,7 +51521,7 @@
         <v>108</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437">
         <v>19</v>
@@ -53199,7 +53212,7 @@
         <v>92</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456">
         <v>14</v>
@@ -54712,7 +54725,7 @@
         <v>171</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473">
         <v>33</v>
@@ -57026,7 +57039,7 @@
         <v>301</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I499">
         <v>41</v>
@@ -57627,6 +57640,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC505" xr:uid="{F91E31BD-241C-4C17-AA64-60DBB8C4D378}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>